--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$111</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$111</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$111</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$111</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$111</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="428">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -394,13 +395,13 @@
     <t xml:space="preserve">5449000000286</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprite - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000004864</t>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000996</t>
   </si>
   <si>
     <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
@@ -624,7 +625,7 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000193124</t>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
@@ -633,7 +634,7 @@
     <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042430879</t>
+    <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 0.5L</t>
@@ -651,16 +652,16 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW SKU 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 10</t>
+    <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Peach - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Персик- 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000238863</t>
   </si>
   <si>
     <t xml:space="preserve">Juice (JNSD) Availability</t>
@@ -913,21 +914,6 @@
     <t xml:space="preserve">Coca-Cola - 1L share on Display. The competitors are only SSD SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display: Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей: Кока-Кола - 2л</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juice Display</t>
   </si>
   <si>
@@ -985,9 +971,6 @@
   </si>
   <si>
     <t xml:space="preserve">Прикассовый дисплеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Displays</t>
   </si>
   <si>
     <t xml:space="preserve">69
@@ -1012,6 +995,9 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
+    <t xml:space="preserve">Displays Dobry 0.2 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cashier Displays Dobry 0.2 Zone</t>
   </si>
   <si>
@@ -1040,6 +1026,9 @@
   </si>
   <si>
     <t xml:space="preserve">5449000008046, 5449000020987, 5449000239655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Entry Pack </t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Entry Pack Zone</t>
@@ -1474,9 +1463,9 @@
     <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="D\-MMM"/>
-    <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="D\-MMM"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1552,19 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1620,7 +1609,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1689,19 +1678,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1709,7 +1702,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1717,11 +1710,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1729,7 +1722,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1793,8 +1786,8 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1827,54 +1820,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF65536"/>
+  <dimension ref="A1:AMF109"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AG9" activeCellId="0" sqref="AG9"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.8016194331984"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1992,8 +1985,6 @@
       <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="0"/>
-      <c r="AMF1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -2054,7 +2045,6 @@
         <v>43</v>
       </c>
       <c r="AL2" s="6"/>
-      <c r="BD2" s="0"/>
       <c r="AMF2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2116,8 +2106,6 @@
         <v>45</v>
       </c>
       <c r="AL3" s="10"/>
-      <c r="BD3" s="0"/>
-      <c r="AMF3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -2180,8 +2168,6 @@
       <c r="AL4" s="10" t="n">
         <v>301</v>
       </c>
-      <c r="BD4" s="0"/>
-      <c r="AMF4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -2244,8 +2230,6 @@
       <c r="AL5" s="10" t="n">
         <v>301</v>
       </c>
-      <c r="BD5" s="0"/>
-      <c r="AMF5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
@@ -2306,8 +2290,6 @@
         <v>52</v>
       </c>
       <c r="AL6" s="10"/>
-      <c r="BD6" s="0"/>
-      <c r="AMF6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -2370,8 +2352,6 @@
       <c r="AL7" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="BD7" s="0"/>
-      <c r="AMF7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -2434,8 +2414,6 @@
       <c r="AL8" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="BD8" s="0"/>
-      <c r="AMF8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -2498,8 +2476,6 @@
       <c r="AL9" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="BD9" s="0"/>
-      <c r="AMF9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -2562,8 +2538,6 @@
       <c r="AL10" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="BD10" s="0"/>
-      <c r="AMF10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -2626,8 +2600,6 @@
       <c r="AL11" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="BD11" s="0"/>
-      <c r="AMF11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -2690,8 +2662,6 @@
       <c r="AL12" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="BD12" s="0"/>
-      <c r="AMF12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -2754,8 +2724,6 @@
       <c r="AL13" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="BD13" s="0"/>
-      <c r="AMF13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -2816,8 +2784,6 @@
         <v>70</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="BD14" s="0"/>
-      <c r="AMF14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -2884,8 +2850,6 @@
       <c r="AL15" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="BD15" s="0"/>
-      <c r="AMF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -2966,8 +2930,6 @@
       <c r="AL16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD16" s="0"/>
-      <c r="AMF16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -3048,8 +3010,6 @@
       <c r="AL17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD17" s="0"/>
-      <c r="AMF17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -3130,8 +3090,6 @@
       <c r="AL18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD18" s="0"/>
-      <c r="AMF18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -3212,8 +3170,6 @@
       <c r="AL19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD19" s="0"/>
-      <c r="AMF19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -3294,8 +3250,6 @@
       <c r="AL20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD20" s="0"/>
-      <c r="AMF20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -3376,8 +3330,6 @@
       <c r="AL21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD21" s="0"/>
-      <c r="AMF21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -3458,8 +3410,6 @@
       <c r="AL22" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD22" s="0"/>
-      <c r="AMF22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -3540,8 +3490,6 @@
       <c r="AL23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD23" s="0"/>
-      <c r="AMF23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -3622,8 +3570,6 @@
       <c r="AL24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD24" s="0"/>
-      <c r="AMF24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -3641,10 +3587,10 @@
       <c r="E25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="6" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -3656,10 +3602,10 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>111</v>
       </c>
       <c r="O25" s="10"/>
@@ -3704,7 +3650,6 @@
       <c r="AL25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD25" s="0"/>
       <c r="AMF25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3786,8 +3731,6 @@
       <c r="AL26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD26" s="0"/>
-      <c r="AMF26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -3868,8 +3811,6 @@
       <c r="AL27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD27" s="0"/>
-      <c r="AMF27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -3950,7 +3891,6 @@
       <c r="AL28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD28" s="0"/>
       <c r="AMF28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4032,8 +3972,6 @@
       <c r="AL29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD29" s="0"/>
-      <c r="AMF29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -4114,8 +4052,6 @@
       <c r="AL30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD30" s="0"/>
-      <c r="AMF30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -4196,8 +4132,6 @@
       <c r="AL31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD31" s="0"/>
-      <c r="AMF31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -4278,7 +4212,6 @@
       <c r="AL32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD32" s="0"/>
       <c r="AMF32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4360,8 +4293,6 @@
       <c r="AL33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD33" s="0"/>
-      <c r="AMF33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -4442,8 +4373,6 @@
       <c r="AL34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD34" s="0"/>
-      <c r="AMF34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -4524,8 +4453,6 @@
       <c r="AL35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BD35" s="0"/>
-      <c r="AMF35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -4592,8 +4519,6 @@
       <c r="AL36" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="BD36" s="0"/>
-      <c r="AMF36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -4674,8 +4599,6 @@
       <c r="AL37" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="BD37" s="0"/>
-      <c r="AMF37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -4756,8 +4679,6 @@
       <c r="AL38" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="BD38" s="0"/>
-      <c r="AMF38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -4838,8 +4759,6 @@
       <c r="AL39" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="BD39" s="0"/>
-      <c r="AMF39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -4920,8 +4839,6 @@
       <c r="AL40" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="BD40" s="0"/>
-      <c r="AMF40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -5002,7 +4919,6 @@
       <c r="AL41" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="BD41" s="0"/>
       <c r="AMF41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5084,8 +5000,6 @@
       <c r="AL42" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="BD42" s="0"/>
-      <c r="AMF42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -5152,8 +5066,6 @@
       <c r="AL43" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="BD43" s="0"/>
-      <c r="AMF43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -5234,8 +5146,6 @@
       <c r="AL44" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="BD44" s="0"/>
-      <c r="AMF44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -5316,8 +5226,6 @@
       <c r="AL45" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="BD45" s="0"/>
-      <c r="AMF45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -5398,7 +5306,6 @@
       <c r="AL46" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="BD46" s="0"/>
       <c r="AMF46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5466,8 +5373,6 @@
       <c r="AL47" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="BD47" s="0"/>
-      <c r="AMF47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -5503,7 +5408,7 @@
       <c r="M48" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N48" s="16" t="s">
+      <c r="N48" s="18" t="s">
         <v>181</v>
       </c>
       <c r="O48" s="10"/>
@@ -5548,7 +5453,6 @@
       <c r="AL48" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="BD48" s="0"/>
       <c r="AMF48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5585,7 +5489,7 @@
       <c r="M49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N49" s="16" t="s">
+      <c r="N49" s="18" t="s">
         <v>184</v>
       </c>
       <c r="O49" s="10"/>
@@ -5630,8 +5534,6 @@
       <c r="AL49" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="BD49" s="0"/>
-      <c r="AMF49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -5664,7 +5566,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="19" t="s">
         <v>185</v>
       </c>
       <c r="N50" s="16" t="s">
@@ -5712,8 +5614,6 @@
       <c r="AL50" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="BD50" s="0"/>
-      <c r="AMF50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -5749,7 +5649,7 @@
       <c r="M51" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="N51" s="16" t="s">
+      <c r="N51" s="18" t="s">
         <v>190</v>
       </c>
       <c r="O51" s="10"/>
@@ -5794,7 +5694,6 @@
       <c r="AL51" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="BD51" s="0"/>
       <c r="AMF51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5813,10 +5712,10 @@
       <c r="E52" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="16" t="s">
         <v>192</v>
       </c>
       <c r="H52" s="6" t="s">
@@ -5828,11 +5727,11 @@
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="17" t="s">
+      <c r="M52" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="N52" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="N52" s="16" t="n">
-        <v>111111</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -5876,8 +5775,6 @@
       <c r="AL52" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="BD52" s="0"/>
-      <c r="AMF52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -5944,8 +5841,6 @@
       <c r="AL53" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="BD53" s="0"/>
-      <c r="AMF53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -6026,8 +5921,6 @@
       <c r="AL54" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD54" s="0"/>
-      <c r="AMF54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -6108,8 +6001,6 @@
       <c r="AL55" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD55" s="0"/>
-      <c r="AMF55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -6190,8 +6081,6 @@
       <c r="AL56" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD56" s="0"/>
-      <c r="AMF56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -6272,8 +6161,6 @@
       <c r="AL57" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD57" s="0"/>
-      <c r="AMF57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -6354,8 +6241,6 @@
       <c r="AL58" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD58" s="0"/>
-      <c r="AMF58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -6436,8 +6321,6 @@
       <c r="AL59" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD59" s="0"/>
-      <c r="AMF59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -6455,10 +6338,10 @@
       <c r="E60" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="21" t="s">
         <v>217</v>
       </c>
       <c r="H60" s="6" t="s">
@@ -6470,7 +6353,7 @@
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="19" t="s">
+      <c r="M60" s="20" t="s">
         <v>216</v>
       </c>
       <c r="N60" s="10" t="s">
@@ -6520,7 +6403,6 @@
       <c r="AL60" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD60" s="0"/>
       <c r="AMF60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6602,8 +6484,6 @@
       <c r="AL61" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD61" s="0"/>
-      <c r="AMF61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -6684,8 +6564,6 @@
       <c r="AL62" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD62" s="0"/>
-      <c r="AMF62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -6766,8 +6644,6 @@
       <c r="AL63" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD63" s="0"/>
-      <c r="AMF63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -6848,8 +6724,6 @@
       <c r="AL64" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD64" s="0"/>
-      <c r="AMF64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -6867,10 +6741,10 @@
       <c r="E65" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="21" t="s">
         <v>232</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -6882,7 +6756,7 @@
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="19" t="s">
+      <c r="M65" s="20" t="s">
         <v>231</v>
       </c>
       <c r="N65" s="10" t="s">
@@ -6930,7 +6804,6 @@
       <c r="AL65" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="BD65" s="0"/>
       <c r="AMF65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7008,8 +6881,6 @@
       <c r="AL66" s="6" t="n">
         <v>501</v>
       </c>
-      <c r="BD66" s="0"/>
-      <c r="AMF66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -7086,8 +6957,6 @@
       <c r="AL67" s="6" t="n">
         <v>503</v>
       </c>
-      <c r="BD67" s="0"/>
-      <c r="AMF67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -7162,8 +7031,6 @@
       <c r="AL68" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="BD68" s="0"/>
-      <c r="AMF68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -7238,8 +7105,6 @@
       <c r="AL69" s="6" t="n">
         <v>505</v>
       </c>
-      <c r="BD69" s="0"/>
-      <c r="AMF69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -7316,8 +7181,6 @@
       <c r="AL70" s="6" t="n">
         <v>502</v>
       </c>
-      <c r="BD70" s="0"/>
-      <c r="AMF70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -7392,8 +7255,6 @@
       <c r="AL71" s="6" t="n">
         <v>302</v>
       </c>
-      <c r="BD71" s="0"/>
-      <c r="AMF71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -7470,8 +7331,6 @@
       <c r="AL72" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="BD72" s="0"/>
-      <c r="AMF72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -7544,8 +7403,6 @@
       <c r="AL73" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="BD73" s="0"/>
-      <c r="AMF73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -7576,7 +7433,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="21" t="s">
+      <c r="M74" s="22" t="s">
         <v>76</v>
       </c>
       <c r="N74" s="10" t="n">
@@ -7624,12 +7481,10 @@
       <c r="AL74" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="BD74" s="0"/>
-      <c r="AMF74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>38</v>
@@ -7650,34 +7505,28 @@
         <v>273</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N75" s="10" t="n">
-        <v>5449000000439</v>
-      </c>
-      <c r="O75" s="10" t="s">
-        <v>238</v>
-      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R75" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
+      <c r="U75" s="23"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -7687,29 +7536,29 @@
       <c r="AC75" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD75" s="8"/>
+      <c r="AD75" s="8" t="n">
+        <v>0.02</v>
+      </c>
       <c r="AE75" s="6"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
-      <c r="AH75" s="6" t="s">
-        <v>274</v>
-      </c>
+      <c r="AH75" s="6"/>
       <c r="AI75" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ75" s="6" t="n">
-        <v>61</v>
-      </c>
-      <c r="AK75" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="AK75" s="15" t="s">
+        <v>275</v>
+      </c>
       <c r="AL75" s="6" t="n">
-        <v>59</v>
-      </c>
-      <c r="BD75" s="0"/>
-      <c r="AMF75" s="0"/>
+        <v>303</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>38</v>
@@ -7724,40 +7573,40 @@
         <v>256</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N76" s="10" t="n">
-        <v>5449000000286</v>
-      </c>
-      <c r="O76" s="10" t="s">
-        <v>238</v>
-      </c>
+      <c r="M76" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
+      <c r="U76" s="23"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
@@ -7771,25 +7620,21 @@
       <c r="AE76" s="6"/>
       <c r="AF76" s="6"/>
       <c r="AG76" s="6"/>
-      <c r="AH76" s="6" t="s">
-        <v>271</v>
-      </c>
+      <c r="AH76" s="6"/>
       <c r="AI76" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ76" s="6" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK76" s="6"/>
       <c r="AL76" s="6" t="n">
-        <v>59</v>
-      </c>
-      <c r="BD76" s="0"/>
-      <c r="AMF76" s="0"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>38</v>
@@ -7804,17 +7649,17 @@
         <v>256</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -7828,10 +7673,10 @@
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
-      <c r="U77" s="22"/>
+      <c r="U77" s="23"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
@@ -7841,31 +7686,27 @@
       <c r="AC77" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD77" s="8" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="AD77" s="8"/>
       <c r="AE77" s="6"/>
       <c r="AF77" s="6"/>
       <c r="AG77" s="6"/>
       <c r="AH77" s="6"/>
       <c r="AI77" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ77" s="6" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK77" s="15" t="s">
         <v>280</v>
       </c>
       <c r="AL77" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="BD77" s="0"/>
-      <c r="AMF77" s="0"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>38</v>
@@ -7886,19 +7727,17 @@
         <v>282</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="6" t="n">
-        <v>12</v>
-      </c>
+      <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N78" s="10" t="s">
-        <v>255</v>
+        <v>197</v>
+      </c>
+      <c r="N78" s="10" t="n">
+        <v>4607042434877</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -7906,14 +7745,14 @@
         <v>80</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
-      <c r="U78" s="22"/>
+      <c r="U78" s="23"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
@@ -7927,23 +7766,23 @@
       <c r="AE78" s="6"/>
       <c r="AF78" s="6"/>
       <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
+      <c r="AH78" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="AI78" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ78" s="6" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK78" s="6"/>
       <c r="AL78" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="BD78" s="0"/>
-      <c r="AMF78" s="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>38</v>
@@ -7958,34 +7797,38 @@
         <v>256</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="10"/>
+      <c r="M79" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N79" s="10" t="n">
+        <v>4607042434891</v>
+      </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R79" s="6"/>
+      <c r="R79" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-      <c r="U79" s="22"/>
+      <c r="U79" s="23"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
@@ -7999,25 +7842,23 @@
       <c r="AE79" s="6"/>
       <c r="AF79" s="6"/>
       <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
+      <c r="AH79" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="AI79" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ79" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="AK79" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="AL79" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="BD79" s="0"/>
-      <c r="AMF79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>38</v>
@@ -8026,76 +7867,70 @@
         <v>39</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>256</v>
+        <v>287</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="N80" s="10" t="n">
-        <v>4607042434877</v>
-      </c>
+      <c r="M80" s="6"/>
+      <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R80" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
-      <c r="U80" s="22"/>
+      <c r="U80" s="6"/>
       <c r="V80" s="6"/>
-      <c r="W80" s="6" t="s">
-        <v>279</v>
-      </c>
+      <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD80" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="AD80" s="8" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE80" s="6"/>
       <c r="AF80" s="6"/>
       <c r="AG80" s="6"/>
-      <c r="AH80" s="6" t="s">
-        <v>288</v>
-      </c>
+      <c r="AH80" s="6"/>
       <c r="AI80" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ80" s="6" t="n">
-        <v>66</v>
-      </c>
-      <c r="AK80" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="AK80" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="AL80" s="6" t="n">
-        <v>65</v>
-      </c>
-      <c r="BD80" s="0"/>
-      <c r="AMF80" s="0"/>
+        <v>301</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>38</v>
@@ -8103,47 +7938,45 @@
       <c r="C81" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="N81" s="10" t="n">
-        <v>4607042434891</v>
-      </c>
+      <c r="M81" s="6"/>
+      <c r="N81" s="10"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
+      <c r="P81" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="Q81" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S81" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="T81" s="6"/>
-      <c r="U81" s="22"/>
+      <c r="U81" s="6"/>
       <c r="V81" s="6"/>
-      <c r="W81" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="X81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
@@ -8154,26 +7987,22 @@
       <c r="AD81" s="8"/>
       <c r="AE81" s="6"/>
       <c r="AF81" s="6"/>
-      <c r="AG81" s="6"/>
-      <c r="AH81" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="AG81" s="16"/>
+      <c r="AH81" s="6"/>
       <c r="AI81" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ81" s="6" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK81" s="6"/>
       <c r="AL81" s="6" t="n">
-        <v>65</v>
-      </c>
-      <c r="BD81" s="0"/>
-      <c r="AMF81" s="0"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>38</v>
@@ -8181,75 +8010,69 @@
       <c r="C82" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>293</v>
-      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I82" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="I82" s="16"/>
       <c r="J82" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="10"/>
+      <c r="N82" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
-      <c r="W82" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="X82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD82" s="8" t="n">
-        <v>0.03</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AD82" s="8"/>
       <c r="AE82" s="6"/>
       <c r="AF82" s="6"/>
-      <c r="AG82" s="6"/>
+      <c r="AG82" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="AH82" s="6"/>
       <c r="AI82" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ82" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="AK82" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AL82" s="6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD82" s="0"/>
-      <c r="AMF82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>38</v>
@@ -8258,12 +8081,12 @@
         <v>39</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="23"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>78</v>
@@ -8274,28 +8097,28 @@
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="10"/>
+      <c r="M83" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="O83" s="10"/>
-      <c r="P83" s="10" t="s">
-        <v>300</v>
-      </c>
+      <c r="P83" s="10"/>
       <c r="Q83" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>302</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
-      <c r="W83" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="X83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
@@ -8306,24 +8129,22 @@
       <c r="AD83" s="8"/>
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
-      <c r="AG83" s="16"/>
+      <c r="AG83" s="6"/>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6" t="n">
         <v>3</v>
       </c>
       <c r="AJ83" s="6" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK83" s="6"/>
       <c r="AL83" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="BD83" s="0"/>
-      <c r="AMF83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>38</v>
@@ -8332,15 +8153,15 @@
         <v>39</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="23"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="6" t="n">
@@ -8350,13 +8171,13 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
@@ -8364,7 +8185,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
@@ -8377,25 +8198,23 @@
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
       <c r="AG84" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AH84" s="6"/>
       <c r="AI84" s="6" t="n">
         <v>3</v>
       </c>
       <c r="AJ84" s="6" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK84" s="6"/>
       <c r="AL84" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="BD84" s="0"/>
-      <c r="AMF84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>38</v>
@@ -8403,73 +8222,71 @@
       <c r="C85" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="23"/>
+      <c r="D85" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="F85" s="6" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="6" t="n">
-        <v>4</v>
-      </c>
+      <c r="J85" s="16"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="N85" s="10" t="s">
-        <v>312</v>
-      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-      <c r="W85" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
       <c r="AC85" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD85" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="AD85" s="8" t="n">
+        <v>0.18</v>
+      </c>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
       <c r="AG85" s="6"/>
-      <c r="AH85" s="6"/>
+      <c r="AH85" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="AI85" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ85" s="6" t="n">
-        <v>71</v>
-      </c>
-      <c r="AK85" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AK85" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="AL85" s="6" t="n">
-        <v>68</v>
-      </c>
-      <c r="BD85" s="0"/>
-      <c r="AMF85" s="0"/>
+        <v>311</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>38</v>
@@ -8477,42 +8294,52 @@
       <c r="C86" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="23"/>
+      <c r="D86" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="F86" s="6" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I86" s="16"/>
+        <v>323</v>
+      </c>
+      <c r="I86" s="6"/>
       <c r="J86" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="K86" s="6" t="n">
+        <v>30</v>
+      </c>
       <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6" t="s">
-        <v>315</v>
+      <c r="M86" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y86" s="6"/>
+      <c r="W86" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
@@ -8523,25 +8350,25 @@
       <c r="AE86" s="6"/>
       <c r="AF86" s="6"/>
       <c r="AG86" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH86" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="AH86" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="AI86" s="6" t="n">
         <v>3</v>
       </c>
       <c r="AJ86" s="6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK86" s="6"/>
       <c r="AL86" s="6" t="n">
-        <v>68</v>
-      </c>
-      <c r="BD86" s="0"/>
-      <c r="AMF86" s="0"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>38</v>
@@ -8553,69 +8380,77 @@
         <v>40</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="6"/>
+      <c r="J87" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" s="6" t="n">
+        <v>24</v>
+      </c>
       <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="10"/>
+      <c r="M87" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="R87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
+      <c r="W87" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="X87" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
       <c r="AC87" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD87" s="8" t="n">
-        <v>0.18</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AD87" s="8"/>
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
-      <c r="AG87" s="6"/>
+      <c r="AG87" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="AH87" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AI87" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ87" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="AK87" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL87" s="6" t="n">
-        <v>311</v>
-      </c>
-      <c r="BD87" s="0"/>
-      <c r="AMF87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>38</v>
@@ -8627,48 +8462,44 @@
         <v>40</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K88" s="6" t="n">
-        <v>30</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="X88" s="6"/>
-      <c r="Y88" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
@@ -8678,28 +8509,22 @@
       <c r="AD88" s="8"/>
       <c r="AE88" s="6"/>
       <c r="AF88" s="6"/>
-      <c r="AG88" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH88" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
       <c r="AI88" s="6" t="n">
         <v>3</v>
       </c>
       <c r="AJ88" s="6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK88" s="6"/>
       <c r="AL88" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="BD88" s="0"/>
-      <c r="AMF88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>38</v>
@@ -8711,46 +8536,42 @@
         <v>40</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I89" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="I89" s="16"/>
       <c r="J89" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K89" s="6" t="n">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="N89" s="10" t="s">
-        <v>329</v>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="X89" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
@@ -8759,31 +8580,31 @@
       <c r="AC89" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD89" s="8"/>
+      <c r="AD89" s="8" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE89" s="6"/>
       <c r="AF89" s="6"/>
       <c r="AG89" s="6" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AH89" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AI89" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ89" s="6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK89" s="6"/>
       <c r="AL89" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="BD89" s="0"/>
-      <c r="AMF89" s="0"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>38</v>
@@ -8795,71 +8616,79 @@
         <v>40</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="M90" s="6" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="6"/>
-      <c r="R90" s="6" t="s">
-        <v>330</v>
-      </c>
+      <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
+      <c r="Y90" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
       <c r="AC90" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD90" s="8"/>
+      <c r="AD90" s="8" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-      <c r="AG90" s="6"/>
-      <c r="AH90" s="6"/>
+      <c r="AG90" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH90" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="AI90" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ90" s="6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK90" s="6"/>
       <c r="AL90" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="BD90" s="0"/>
-      <c r="AMF90" s="0"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>38</v>
@@ -8871,77 +8700,75 @@
         <v>40</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="6" t="s">
-        <v>343</v>
-      </c>
+      <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="Q91" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="X91" s="6" t="s">
-        <v>343</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="AD91" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="AE91" s="6"/>
-      <c r="AF91" s="6"/>
+      <c r="AE91" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="AG91" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AH91" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AI91" s="6" t="n">
         <v>2</v>
       </c>
       <c r="AJ91" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="AK91" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="AK91" s="15" t="s">
+        <v>351</v>
+      </c>
       <c r="AL91" s="6" t="n">
         <v>312</v>
       </c>
-      <c r="BD91" s="0"/>
-      <c r="AMF91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>38</v>
@@ -8952,82 +8779,67 @@
       <c r="D92" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>293</v>
-      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="I92" s="24" t="s">
-        <v>349</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="M92" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="N92" s="10" t="s">
-        <v>329</v>
-      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="6"/>
+      <c r="Q92" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="X92" s="6"/>
-      <c r="Y92" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
       <c r="AC92" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD92" s="8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE92" s="6"/>
+      <c r="AD92" s="8"/>
+      <c r="AE92" s="21"/>
       <c r="AF92" s="6"/>
       <c r="AG92" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH92" s="6" t="s">
-        <v>350</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="AH92" s="6"/>
       <c r="AI92" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ92" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="AK92" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="AK92" s="6" t="n">
+        <v>74</v>
+      </c>
       <c r="AL92" s="6" t="n">
-        <v>312</v>
-      </c>
-      <c r="BD92" s="0"/>
-      <c r="AMF92" s="0"/>
+        <v>79</v>
+      </c>
+      <c r="AMF92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>38</v>
@@ -9038,78 +8850,78 @@
       <c r="D93" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>293</v>
-      </c>
+      <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="6" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="10"/>
+      <c r="M93" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
+      <c r="P93" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="Q93" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="R93" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="R93" s="26" t="s">
+        <v>295</v>
+      </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="X93" s="6"/>
+        <v>327</v>
+      </c>
+      <c r="X93" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
       <c r="AC93" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AD93" s="8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE93" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF93" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
       <c r="AG93" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH93" s="6" t="s">
-        <v>354</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="AH93" s="6"/>
       <c r="AI93" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ93" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="AK93" s="15" t="s">
-        <v>355</v>
+        <v>81</v>
+      </c>
+      <c r="AK93" s="6" t="n">
+        <v>74</v>
       </c>
       <c r="AL93" s="6" t="n">
-        <v>312</v>
-      </c>
-      <c r="BD93" s="0"/>
-      <c r="AMF93" s="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>38</v>
@@ -9122,16 +8934,18 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -9139,7 +8953,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="6" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
@@ -9147,7 +8961,7 @@
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
@@ -9155,20 +8969,20 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
       <c r="AC94" s="6" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="AD94" s="8"/>
-      <c r="AE94" s="20"/>
+      <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
       <c r="AG94" s="6" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AH94" s="6"/>
       <c r="AI94" s="6" t="n">
         <v>3</v>
       </c>
       <c r="AJ94" s="6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK94" s="6" t="n">
         <v>74</v>
@@ -9176,12 +8990,10 @@
       <c r="AL94" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="BD94" s="0"/>
-      <c r="AMF94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>38</v>
@@ -9194,78 +9006,78 @@
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O95" s="10"/>
       <c r="P95" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q95" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R95" s="25" t="s">
-        <v>301</v>
+      <c r="R95" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="X95" s="6" t="s">
-        <v>364</v>
+        <v>327</v>
+      </c>
+      <c r="X95" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
+      <c r="AB95" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="AC95" s="6" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="AD95" s="8"/>
       <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
       <c r="AG95" s="6" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6" t="n">
         <v>4</v>
       </c>
       <c r="AJ95" s="6" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK95" s="6" t="n">
         <v>74</v>
       </c>
       <c r="AL95" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="BD95" s="0"/>
-      <c r="AMF95" s="0"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>38</v>
@@ -9278,68 +9090,78 @@
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="10"/>
+      <c r="M96" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N96" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
+      <c r="P96" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="Q96" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="R96" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="R96" s="26" t="s">
+        <v>295</v>
+      </c>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="X96" s="6"/>
+        <v>327</v>
+      </c>
+      <c r="X96" s="15" t="s">
+        <v>373</v>
+      </c>
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
-      <c r="AB96" s="6"/>
+      <c r="AB96" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="AC96" s="6" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="AD96" s="8"/>
       <c r="AE96" s="6"/>
       <c r="AF96" s="6"/>
       <c r="AG96" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AH96" s="6"/>
       <c r="AI96" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ96" s="6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AK96" s="6" t="n">
         <v>74</v>
       </c>
       <c r="AL96" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="BD96" s="0"/>
-      <c r="AMF96" s="0"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>38</v>
@@ -9352,52 +9174,50 @@
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I97" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>376</v>
+      </c>
       <c r="J97" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="O97" s="10"/>
-      <c r="P97" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="P97" s="10"/>
       <c r="Q97" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R97" s="25" t="s">
-        <v>301</v>
+      <c r="R97" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="X97" s="15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
-      <c r="AB97" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="AB97" s="6"/>
       <c r="AC97" s="6" t="s">
         <v>84</v>
       </c>
@@ -9405,27 +9225,25 @@
       <c r="AE97" s="6"/>
       <c r="AF97" s="6"/>
       <c r="AG97" s="6" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ97" s="6" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK97" s="6" t="n">
         <v>74</v>
       </c>
       <c r="AL97" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="BD97" s="0"/>
-      <c r="AMF97" s="0"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>38</v>
@@ -9436,82 +9254,72 @@
       <c r="D98" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="F98" s="6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="6" t="n">
-        <v>4</v>
-      </c>
+      <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6" t="s">
-        <v>375</v>
-      </c>
+      <c r="M98" s="6"/>
       <c r="N98" s="10" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="O98" s="10"/>
-      <c r="P98" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q98" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R98" s="25" t="s">
-        <v>301</v>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="X98" s="15" t="s">
-        <v>377</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
-      <c r="AB98" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="AB98" s="6"/>
       <c r="AC98" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD98" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="AD98" s="8" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE98" s="6"/>
       <c r="AF98" s="6"/>
       <c r="AG98" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH98" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="AH98" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="AI98" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ98" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="AK98" s="6" t="n">
-        <v>74</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AK98" s="6"/>
       <c r="AL98" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="BD98" s="0"/>
-      <c r="AMF98" s="0"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>38</v>
@@ -9520,82 +9328,62 @@
         <v>39</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H99" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="I99" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="J99" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="E99" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N99" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R99" s="25" t="s">
-        <v>81</v>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
-      <c r="W99" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="X99" s="15" t="s">
-        <v>377</v>
-      </c>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
-      <c r="AC99" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="AC99" s="6"/>
       <c r="AD99" s="8"/>
       <c r="AE99" s="6"/>
       <c r="AF99" s="6"/>
-      <c r="AG99" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="AG99" s="6"/>
       <c r="AH99" s="6"/>
-      <c r="AI99" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI99" s="6"/>
       <c r="AJ99" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK99" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="AL99" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="BD99" s="0"/>
-      <c r="AMF99" s="0"/>
+        <v>93</v>
+      </c>
+      <c r="AK99" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>38</v>
@@ -9604,76 +9392,64 @@
         <v>39</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I100" s="6"/>
+        <v>391</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
-      <c r="N100" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
+      <c r="N100" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
-      <c r="W100" s="6" t="s">
-        <v>331</v>
-      </c>
+      <c r="W100" s="6"/>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="6"/>
-      <c r="AC100" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD100" s="8" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="8"/>
       <c r="AE100" s="6"/>
       <c r="AF100" s="6"/>
-      <c r="AG100" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH100" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI100" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="6"/>
+      <c r="AI100" s="6"/>
       <c r="AJ100" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="AK100" s="6"/>
-      <c r="AL100" s="6" t="n">
-        <v>312</v>
-      </c>
-      <c r="BD100" s="0"/>
-      <c r="AMF100" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="AK100" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>38</v>
@@ -9682,33 +9458,35 @@
         <v>39</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>387</v>
+        <v>380</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
+      <c r="N101" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -9728,18 +9506,16 @@
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
       <c r="AJ101" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="AK101" s="15" t="s">
-        <v>391</v>
+        <v>95</v>
+      </c>
+      <c r="AK101" s="6" t="n">
+        <v>70</v>
       </c>
       <c r="AL101" s="6"/>
-      <c r="BD101" s="0"/>
-      <c r="AMF101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>38</v>
@@ -9748,35 +9524,35 @@
         <v>39</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E102" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G102" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
@@ -9796,18 +9572,16 @@
       <c r="AH102" s="6"/>
       <c r="AI102" s="6"/>
       <c r="AJ102" s="6" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK102" s="6" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AL102" s="6"/>
-      <c r="BD102" s="0"/>
-      <c r="AMF102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>38</v>
@@ -9816,35 +9590,35 @@
         <v>39</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E103" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
@@ -9864,18 +9638,16 @@
       <c r="AH103" s="6"/>
       <c r="AI103" s="6"/>
       <c r="AJ103" s="6" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK103" s="6" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL103" s="6"/>
-      <c r="BD103" s="0"/>
-      <c r="AMF103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>38</v>
@@ -9884,66 +9656,67 @@
         <v>39</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>394</v>
+        <v>380</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>399</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
+      <c r="W104" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="X104" s="15" t="s">
+        <v>403</v>
+      </c>
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
       <c r="AB104" s="6"/>
       <c r="AC104" s="6"/>
       <c r="AD104" s="8"/>
-      <c r="AE104" s="6"/>
+      <c r="AE104" s="16"/>
       <c r="AF104" s="6"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="AK104" s="6" t="n">
-        <v>71</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AK104" s="6"/>
       <c r="AL104" s="6"/>
-      <c r="BD104" s="0"/>
-      <c r="AMF104" s="0"/>
+      <c r="BD104" s="27"/>
     </row>
     <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>38</v>
@@ -9952,42 +9725,44 @@
         <v>39</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E105" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
-      <c r="X105" s="6"/>
+      <c r="X105" s="15" t="s">
+        <v>409</v>
+      </c>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
@@ -10000,18 +9775,14 @@
       <c r="AH105" s="6"/>
       <c r="AI105" s="6"/>
       <c r="AJ105" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="AK105" s="6" t="n">
-        <v>72</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AK105" s="6"/>
       <c r="AL105" s="6"/>
-      <c r="BD105" s="0"/>
-      <c r="AMF105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>38</v>
@@ -10020,45 +9791,43 @@
         <v>39</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G106" s="23" t="s">
-        <v>403</v>
+        <v>380</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
-      <c r="W106" s="6" t="s">
-        <v>331</v>
-      </c>
+      <c r="W106" s="6"/>
       <c r="X106" s="15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
@@ -10072,16 +9841,14 @@
       <c r="AH106" s="6"/>
       <c r="AI106" s="6"/>
       <c r="AJ106" s="6" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK106" s="6"/>
       <c r="AL106" s="6"/>
-      <c r="BD106" s="26"/>
-      <c r="AMF106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>38</v>
@@ -10090,65 +9857,67 @@
         <v>39</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6" t="s">
-        <v>412</v>
+      <c r="M107" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>418</v>
       </c>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
-      <c r="X107" s="15" t="s">
-        <v>413</v>
-      </c>
+      <c r="X107" s="6"/>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
       <c r="AB107" s="6"/>
       <c r="AC107" s="6"/>
       <c r="AD107" s="8"/>
-      <c r="AE107" s="6"/>
+      <c r="AE107" s="16"/>
       <c r="AF107" s="6"/>
       <c r="AG107" s="6"/>
       <c r="AH107" s="6"/>
       <c r="AI107" s="6"/>
       <c r="AJ107" s="6" t="n">
-        <v>99</v>
-      </c>
-      <c r="AK107" s="6"/>
-      <c r="AL107" s="6"/>
-      <c r="AMF107" s="0"/>
+        <v>102</v>
+      </c>
+      <c r="AK107" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL107" s="16"/>
+      <c r="AMF107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>38</v>
@@ -10157,44 +9926,44 @@
         <v>39</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E108" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E108" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="F108" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="G108" s="24" t="s">
         <v>416</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6" t="s">
+      <c r="M108" s="26" t="s">
         <v>417</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>418</v>
       </c>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
-      <c r="X108" s="15" t="s">
-        <v>413</v>
-      </c>
+      <c r="X108" s="6"/>
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
@@ -10207,15 +9976,17 @@
       <c r="AH108" s="6"/>
       <c r="AI108" s="6"/>
       <c r="AJ108" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK108" s="6"/>
-      <c r="AL108" s="6"/>
-      <c r="AMF108" s="0"/>
+        <v>103</v>
+      </c>
+      <c r="AK108" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL108" s="16"/>
+      <c r="AMF108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>38</v>
@@ -10224,37 +9995,37 @@
         <v>39</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>420</v>
+        <v>380</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>422</v>
+      <c r="M109" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="N109" s="28" t="s">
+        <v>419</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
@@ -10274,154 +10045,15 @@
       <c r="AH109" s="6"/>
       <c r="AI109" s="6"/>
       <c r="AJ109" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="AK109" s="6" t="n">
-        <v>57</v>
+        <v>104</v>
+      </c>
+      <c r="AK109" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="AL109" s="16"/>
-      <c r="AMF109" s="12"/>
-    </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="N110" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
-      <c r="Y110" s="6"/>
-      <c r="Z110" s="6"/>
-      <c r="AA110" s="6"/>
-      <c r="AB110" s="6"/>
-      <c r="AC110" s="6"/>
-      <c r="AD110" s="8"/>
-      <c r="AE110" s="16"/>
-      <c r="AF110" s="6"/>
-      <c r="AG110" s="6"/>
-      <c r="AH110" s="6"/>
-      <c r="AI110" s="6"/>
-      <c r="AJ110" s="6" t="n">
-        <v>103</v>
-      </c>
-      <c r="AK110" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="AL110" s="16"/>
-      <c r="AMF110" s="12"/>
-    </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="n">
-        <v>98</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="G111" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="N111" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
-      <c r="Y111" s="6"/>
-      <c r="Z111" s="6"/>
-      <c r="AA111" s="6"/>
-      <c r="AB111" s="6"/>
-      <c r="AC111" s="6"/>
-      <c r="AD111" s="8"/>
-      <c r="AE111" s="16"/>
-      <c r="AF111" s="6"/>
-      <c r="AG111" s="6"/>
-      <c r="AH111" s="6"/>
-      <c r="AI111" s="6"/>
-      <c r="AJ111" s="6" t="n">
-        <v>104</v>
-      </c>
-      <c r="AK111" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AL111" s="16"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL111"/>
+  <autoFilter ref="A1:AL109"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10441,7 +10073,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10451,12 +10083,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -10478,7 +10110,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10487,49 +10119,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="H1" s="29" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="31" t="s">
         <v>427</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="30" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -13,8 +13,9 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AMF$109</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AMF$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AMF$109</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1811,52 +1812,52 @@
   </sheetPr>
   <dimension ref="A1:AMF109"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="R97" activeCellId="0" sqref="R97"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="69.7894736842105"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.8623481781377"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.2226720647773"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8929,7 +8930,7 @@
         <v>362</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="5" t="n">
@@ -10040,7 +10041,7 @@
       <c r="AL109" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL109"/>
+  <autoFilter ref="A1:AMF109"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="412">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1389,6 +1390,15 @@
   <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1777,54 +1787,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF108"/>
+  <dimension ref="A1:AMF109"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J93" activeCellId="0" sqref="J93"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.914979757085"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.4493927125506"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="115.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="116.331983805668"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -10134,8 +10144,68 @@
       </c>
       <c r="AL108" s="19"/>
     </row>
+    <row r="109" customFormat="false" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="8"/>
+      <c r="AC109" s="8"/>
+      <c r="AD109" s="11"/>
+      <c r="AE109" s="19"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="8"/>
+      <c r="AH109" s="8"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AK109" s="18"/>
+      <c r="AL109" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL108"/>
+  <autoFilter ref="A1:AL109"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="409">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1390,15 +1389,6 @@
   <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1787,54 +1777,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF109"/>
+  <dimension ref="A1:AMF108"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J93" activeCellId="0" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.4493927125506"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.914979757085"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="116.331983805668"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="115.368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="71.9838056680162"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="84.6234817813765"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -10144,68 +10134,8 @@
       </c>
       <c r="AL108" s="19"/>
     </row>
-    <row r="109" customFormat="false" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="n">
-        <v>521</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-      <c r="X109" s="8"/>
-      <c r="Y109" s="8"/>
-      <c r="Z109" s="8"/>
-      <c r="AA109" s="8"/>
-      <c r="AB109" s="8"/>
-      <c r="AC109" s="8"/>
-      <c r="AD109" s="11"/>
-      <c r="AE109" s="19"/>
-      <c r="AF109" s="8"/>
-      <c r="AG109" s="8"/>
-      <c r="AH109" s="8"/>
-      <c r="AI109" s="8"/>
-      <c r="AJ109" s="8" t="n">
-        <v>521</v>
-      </c>
-      <c r="AK109" s="18"/>
-      <c r="AL109" s="19"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL109"/>
+  <autoFilter ref="A1:AL108"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="412">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1390,12 +1391,21 @@
     <t xml:space="preserve">OTG
 No_O_A</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -1405,8 +1415,9 @@
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="0%"/>
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1444,6 +1455,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1529,7 +1546,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1538,7 +1557,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1695,6 +1714,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1777,54 +1804,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF108"/>
+  <dimension ref="1:109"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J93" activeCellId="0" sqref="J93"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AL109" activeCellId="0" sqref="AL109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.914979757085"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.4493927125506"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="115.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="116.331983805668"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -10134,8 +10161,69 @@
       </c>
       <c r="AL108" s="19"/>
     </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="39"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="8"/>
+      <c r="AC109" s="8"/>
+      <c r="AD109" s="40"/>
+      <c r="AE109" s="8"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="8"/>
+      <c r="AH109" s="8"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AK109" s="8"/>
+      <c r="AL109" s="8"/>
+      <c r="AMJ109" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL108"/>
+  <autoFilter ref="A1:AL109"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -11,9 +11,11 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$109</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$108</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$122</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$122</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$122</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="422">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -342,7 +344,7 @@
     <t xml:space="preserve">Фанта Апельсин - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000006271, 5449000006271</t>
+    <t xml:space="preserve">5449000006271, 5449000228963</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 1L</t>
@@ -480,10 +482,10 @@
     <t xml:space="preserve">5449000234155, 5449000172235</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
+    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2</t>
@@ -635,7 +637,7 @@
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301</t>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
@@ -879,10 +881,10 @@
     <t xml:space="preserve">SSD Дисплей: Фейсинги</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display: Lead SKU Coca-Cola - 1L/1.5L/2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей: Основной СКЮ Кока-Кола - 1/1.5л/2л</t>
+    <t xml:space="preserve">SSD Display: Lead SKU Coca-Cola - 1L/1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей: Основной СКЮ Кока-Кола - 1/1.5л</t>
   </si>
   <si>
     <t xml:space="preserve">number of sub atomic KPI Passed</t>
@@ -890,7 +892,6 @@
   <si>
     <t xml:space="preserve">60
 61
-62
 </t>
   </si>
   <si>
@@ -904,6 +905,15 @@
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 1L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L share on Display. The competitors are only SSD SKUs</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Display</t>
@@ -1008,7 +1018,7 @@
     <t xml:space="preserve">Dobry 0.2_Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated only if Promo Displays Innovation is passed</t>
+    <t xml:space="preserve">Calculate only if passed KPI Cashier Displays Dobry 0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Entry Pack</t>
@@ -1038,7 +1048,7 @@
     <t xml:space="preserve">Entry_PacK_ Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated only if Promo Displays Entry Pack Zone is passed </t>
+    <t xml:space="preserve">Calculate only if passed KPI Cashier Displays Entry Pack</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 22</t>
@@ -1275,6 +1285,25 @@
   </si>
   <si>
     <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovation
+No_Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovation_Zone
+No_Innovation_Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry_Pack
+No_Entry_Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry_PacK_ Zone
+No_Entry_PacK_ Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Scene Sub Type 2</t>
@@ -1320,17 +1349,7 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Promo SSD
-Promo Water
-Promo Energy
-Promo Fuzetea
-Other SSD Display
-Other Water Display
-Other Juice Display
-Other Energy Display
-Other Ice Tea Display
-Other Mixed Display
-Freezer BIG SSD
+    <t xml:space="preserve">Freezer BIG SSD
 SSD Cooler-Side Rack Big
 SSD Cooler-Side Rack Small
 SSD Mini pallet
@@ -1338,7 +1357,6 @@
 Freezer Small SSD
 Other SSD Display BIG
 Other SSD Display Small
-4/4 Fuzetea+Energy Door
 Juice Cooler-Side Rack
 Juice Freezer
 Juice Mini Pallet
@@ -1346,18 +1364,14 @@
 Pulpy Cooler-Side Rack
 Pulpy Other
 Other Juice Display Small
-Bonaqua Freezer
-Bonaqua Cooler-Side Rack
-Bonaqua Mini pallet
-Bonaqua square Rack
-Bonaqua other display
-Fuzetea Other Display
-Fuzetea Freezer BIG
-Fuzetea Cooler-Side Rack
-Fuzetea "Грабли" Rack
-Energy Rack
-Energy Other
-Promo Juice</t>
+Bonaqua Display
+Fuzetea Display
+Energy Display
+Promo SSD
+Promo Juice
+Promo Water
+Promo Energy
+Promo Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Scene Sub Type 1</t>
@@ -1381,15 +1395,24 @@
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
   </si>
   <si>
-    <t xml:space="preserve">SEND VALUE if at least one is Passed , other No_O_A</t>
+    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
   </si>
   <si>
     <t xml:space="preserve">MealsAtHo
 No_O_A</t>
   </si>
   <si>
+    <t xml:space="preserve">57
+63</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69
+71
+</t>
   </si>
   <si>
     <t xml:space="preserve">PLAN</t>
@@ -1466,7 +1489,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,30 +1504,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1523,6 +1528,34 @@
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -1557,7 +1590,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1568,10 +1601,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1588,6 +1617,10 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1670,11 +1703,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,36 +1715,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1732,66 +1753,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1804,176 +1765,174 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:109"/>
+  <dimension ref="A1:AMF109"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AL109" activeCellId="0" sqref="AL109"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AG96" activeCellId="0" sqref="AG96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.4493927125506"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="116.331983805668"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.3684210526316"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.9311740890688"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="121.445344129555"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="75.7773279352227"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.59109311740891"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="50.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0364372469636"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3481781376518"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="54.8461538461538"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.95546558704453"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.3846153846154"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="0"/>
-      <c r="AMF1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>174</v>
       </c>
@@ -2032,10 +1991,9 @@
         <v>43</v>
       </c>
       <c r="AL2" s="8"/>
-      <c r="BD2" s="0"/>
       <c r="AMF2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>175</v>
       </c>
@@ -2094,10 +2052,8 @@
         <v>45</v>
       </c>
       <c r="AL3" s="13"/>
-      <c r="BD3" s="0"/>
-      <c r="AMF3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>176</v>
       </c>
@@ -2158,10 +2114,8 @@
       <c r="AL4" s="13" t="n">
         <v>301</v>
       </c>
-      <c r="BD4" s="0"/>
-      <c r="AMF4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>177</v>
       </c>
@@ -2222,10 +2176,8 @@
       <c r="AL5" s="13" t="n">
         <v>301</v>
       </c>
-      <c r="BD5" s="0"/>
-      <c r="AMF5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>178</v>
       </c>
@@ -2284,10 +2236,8 @@
         <v>52</v>
       </c>
       <c r="AL6" s="13"/>
-      <c r="BD6" s="0"/>
-      <c r="AMF6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>179</v>
       </c>
@@ -2348,10 +2298,8 @@
       <c r="AL7" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="BD7" s="0"/>
-      <c r="AMF7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>180</v>
       </c>
@@ -2412,10 +2360,8 @@
       <c r="AL8" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="BD8" s="0"/>
-      <c r="AMF8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>182</v>
       </c>
@@ -2476,10 +2422,8 @@
       <c r="AL9" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="BD9" s="0"/>
-      <c r="AMF9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>183</v>
       </c>
@@ -2540,10 +2484,8 @@
       <c r="AL10" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="BD10" s="0"/>
-      <c r="AMF10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>184</v>
       </c>
@@ -2604,10 +2546,8 @@
       <c r="AL11" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="BD11" s="0"/>
-      <c r="AMF11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>185</v>
       </c>
@@ -2668,10 +2608,8 @@
       <c r="AL12" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="BD12" s="0"/>
-      <c r="AMF12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>186</v>
       </c>
@@ -2732,10 +2670,8 @@
       <c r="AL13" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="BD13" s="0"/>
-      <c r="AMF13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>188</v>
       </c>
@@ -2794,10 +2730,8 @@
         <v>70</v>
       </c>
       <c r="AL14" s="8"/>
-      <c r="BD14" s="0"/>
-      <c r="AMF14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>1</v>
       </c>
@@ -2862,10 +2796,8 @@
       <c r="AL15" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="BD15" s="0"/>
-      <c r="AMF15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>2</v>
       </c>
@@ -2944,10 +2876,8 @@
       <c r="AL16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD16" s="0"/>
-      <c r="AMF16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>3</v>
       </c>
@@ -3026,10 +2956,8 @@
       <c r="AL17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD17" s="0"/>
-      <c r="AMF17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>4</v>
       </c>
@@ -3108,10 +3036,8 @@
       <c r="AL18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD18" s="0"/>
-      <c r="AMF18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>5</v>
       </c>
@@ -3190,10 +3116,8 @@
       <c r="AL19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD19" s="0"/>
-      <c r="AMF19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>6</v>
       </c>
@@ -3272,10 +3196,8 @@
       <c r="AL20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD20" s="0"/>
-      <c r="AMF20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>7</v>
       </c>
@@ -3354,10 +3276,8 @@
       <c r="AL21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD21" s="0"/>
-      <c r="AMF21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>8</v>
       </c>
@@ -3436,10 +3356,8 @@
       <c r="AL22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD22" s="0"/>
-      <c r="AMF22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>9</v>
       </c>
@@ -3518,10 +3436,8 @@
       <c r="AL23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD23" s="0"/>
-      <c r="AMF23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>10</v>
       </c>
@@ -3600,10 +3516,8 @@
       <c r="AL24" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD24" s="0"/>
-      <c r="AMF24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>11</v>
       </c>
@@ -3682,10 +3596,9 @@
       <c r="AL25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD25" s="0"/>
       <c r="AMF25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>12</v>
       </c>
@@ -3764,10 +3677,8 @@
       <c r="AL26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD26" s="0"/>
-      <c r="AMF26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>13</v>
       </c>
@@ -3846,10 +3757,8 @@
       <c r="AL27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD27" s="0"/>
-      <c r="AMF27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>14</v>
       </c>
@@ -3928,10 +3837,9 @@
       <c r="AL28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD28" s="0"/>
       <c r="AMF28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>15</v>
       </c>
@@ -4010,10 +3918,8 @@
       <c r="AL29" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD29" s="0"/>
-      <c r="AMF29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>16</v>
       </c>
@@ -4092,10 +3998,8 @@
       <c r="AL30" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD30" s="0"/>
-      <c r="AMF30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>17</v>
       </c>
@@ -4174,10 +4078,8 @@
       <c r="AL31" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD31" s="0"/>
-      <c r="AMF31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>18</v>
       </c>
@@ -4256,10 +4158,9 @@
       <c r="AL32" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD32" s="0"/>
       <c r="AMF32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="n">
         <v>19</v>
       </c>
@@ -4338,10 +4239,8 @@
       <c r="AL33" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD33" s="0"/>
-      <c r="AMF33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">
         <v>20</v>
       </c>
@@ -4420,10 +4319,8 @@
       <c r="AL34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD34" s="0"/>
-      <c r="AMF34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="n">
         <v>21</v>
       </c>
@@ -4439,10 +4336,10 @@
       <c r="E35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="8" t="s">
         <v>140</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -4454,11 +4351,11 @@
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N35" s="19" t="n">
-        <v>5449000046390</v>
+      <c r="N35" s="13" t="n">
+        <v>5449000213631</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -4502,10 +4399,8 @@
       <c r="AL35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="BD35" s="0"/>
-      <c r="AMF35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
         <v>22</v>
       </c>
@@ -4570,10 +4465,8 @@
       <c r="AL36" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="BD36" s="0"/>
-      <c r="AMF36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
         <v>23</v>
       </c>
@@ -4652,10 +4545,8 @@
       <c r="AL37" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="BD37" s="0"/>
-      <c r="AMF37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
         <v>24</v>
       </c>
@@ -4734,10 +4625,8 @@
       <c r="AL38" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="BD38" s="0"/>
-      <c r="AMF38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="n">
         <v>25</v>
       </c>
@@ -4816,10 +4705,8 @@
       <c r="AL39" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="BD39" s="0"/>
-      <c r="AMF39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="n">
         <v>26</v>
       </c>
@@ -4898,10 +4785,8 @@
       <c r="AL40" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="BD40" s="0"/>
-      <c r="AMF40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="n">
         <v>27</v>
       </c>
@@ -4980,10 +4865,9 @@
       <c r="AL41" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="BD41" s="0"/>
       <c r="AMF41" s="15"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>28</v>
       </c>
@@ -5062,10 +4946,8 @@
       <c r="AL42" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="BD42" s="0"/>
-      <c r="AMF42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
         <v>29</v>
       </c>
@@ -5130,10 +5012,8 @@
       <c r="AL43" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="BD43" s="0"/>
-      <c r="AMF43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
         <v>30</v>
       </c>
@@ -5212,10 +5092,8 @@
       <c r="AL44" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="BD44" s="0"/>
-      <c r="AMF44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
         <v>31</v>
       </c>
@@ -5294,10 +5172,8 @@
       <c r="AL45" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="BD45" s="0"/>
-      <c r="AMF45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
         <v>32</v>
       </c>
@@ -5376,10 +5252,9 @@
       <c r="AL46" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="BD46" s="0"/>
       <c r="AMF46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>33</v>
       </c>
@@ -5444,10 +5319,8 @@
       <c r="AL47" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="BD47" s="0"/>
-      <c r="AMF47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>34</v>
       </c>
@@ -5526,10 +5399,9 @@
       <c r="AL48" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="BD48" s="0"/>
       <c r="AMF48" s="15"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>35</v>
       </c>
@@ -5608,10 +5480,8 @@
       <c r="AL49" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="BD49" s="0"/>
-      <c r="AMF49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>36</v>
       </c>
@@ -5645,7 +5515,7 @@
       <c r="M50" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="21" t="s">
         <v>186</v>
       </c>
       <c r="O50" s="8"/>
@@ -5690,10 +5560,8 @@
       <c r="AL50" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="BD50" s="0"/>
-      <c r="AMF50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>37</v>
       </c>
@@ -5772,10 +5640,9 @@
       <c r="AL51" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="BD51" s="0"/>
       <c r="AMF51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>38</v>
       </c>
@@ -5854,10 +5721,8 @@
       <c r="AL52" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="BD52" s="0"/>
-      <c r="AMF52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>39</v>
       </c>
@@ -5922,10 +5787,8 @@
       <c r="AL53" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="BD53" s="0"/>
-      <c r="AMF53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
         <v>40</v>
       </c>
@@ -6004,10 +5867,8 @@
       <c r="AL54" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD54" s="0"/>
-      <c r="AMF54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
         <v>41</v>
       </c>
@@ -6086,10 +5947,8 @@
       <c r="AL55" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD55" s="0"/>
-      <c r="AMF55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
         <v>42</v>
       </c>
@@ -6168,10 +6027,8 @@
       <c r="AL56" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD56" s="0"/>
-      <c r="AMF56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="n">
         <v>43</v>
       </c>
@@ -6250,10 +6107,8 @@
       <c r="AL57" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD57" s="0"/>
-      <c r="AMF57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="n">
         <v>44</v>
       </c>
@@ -6332,10 +6187,8 @@
       <c r="AL58" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD58" s="0"/>
-      <c r="AMF58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="n">
         <v>45</v>
       </c>
@@ -6414,10 +6267,8 @@
       <c r="AL59" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD59" s="0"/>
-      <c r="AMF59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
         <v>46</v>
       </c>
@@ -6498,10 +6349,9 @@
       <c r="AL60" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD60" s="0"/>
       <c r="AMF60" s="15"/>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
         <v>47</v>
       </c>
@@ -6580,10 +6430,8 @@
       <c r="AL61" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD61" s="0"/>
-      <c r="AMF61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
         <v>48</v>
       </c>
@@ -6662,10 +6510,8 @@
       <c r="AL62" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD62" s="0"/>
-      <c r="AMF62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="n">
         <v>49</v>
       </c>
@@ -6744,10 +6590,8 @@
       <c r="AL63" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD63" s="0"/>
-      <c r="AMF63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="n">
         <v>50</v>
       </c>
@@ -6826,10 +6670,8 @@
       <c r="AL64" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD64" s="0"/>
-      <c r="AMF64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="n">
         <v>51</v>
       </c>
@@ -6908,10 +6750,9 @@
       <c r="AL65" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="BD65" s="0"/>
       <c r="AMF65" s="15"/>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
         <v>52</v>
       </c>
@@ -6986,10 +6827,8 @@
       <c r="AL66" s="8" t="n">
         <v>501</v>
       </c>
-      <c r="BD66" s="0"/>
-      <c r="AMF66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
         <v>53</v>
       </c>
@@ -7064,10 +6903,8 @@
       <c r="AL67" s="8" t="n">
         <v>503</v>
       </c>
-      <c r="BD67" s="0"/>
-      <c r="AMF67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
         <v>54</v>
       </c>
@@ -7140,10 +6977,8 @@
       <c r="AL68" s="8" t="n">
         <v>504</v>
       </c>
-      <c r="BD68" s="0"/>
-      <c r="AMF68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="n">
         <v>55</v>
       </c>
@@ -7216,10 +7051,8 @@
       <c r="AL69" s="8" t="n">
         <v>505</v>
       </c>
-      <c r="BD69" s="0"/>
-      <c r="AMF69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="n">
         <v>56</v>
       </c>
@@ -7294,10 +7127,8 @@
       <c r="AL70" s="8" t="n">
         <v>502</v>
       </c>
-      <c r="BD70" s="0"/>
-      <c r="AMF70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="n">
         <v>57</v>
       </c>
@@ -7370,10 +7201,8 @@
       <c r="AL71" s="8" t="n">
         <v>302</v>
       </c>
-      <c r="BD71" s="0"/>
-      <c r="AMF71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
         <v>58</v>
       </c>
@@ -7448,10 +7277,8 @@
       <c r="AL72" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="BD72" s="0"/>
-      <c r="AMF72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="n">
         <v>59</v>
       </c>
@@ -7522,10 +7349,8 @@
       <c r="AL73" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="BD73" s="0"/>
-      <c r="AMF73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
         <v>60</v>
       </c>
@@ -7557,12 +7382,10 @@
       <c r="M74" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N74" s="13" t="n">
-        <v>5449000054227</v>
-      </c>
-      <c r="O74" s="13" t="s">
-        <v>237</v>
-      </c>
+      <c r="N74" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O74" s="13"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="8" t="s">
         <v>80</v>
@@ -7602,12 +7425,10 @@
       <c r="AL74" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="BD74" s="0"/>
-      <c r="AMF74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>38</v>
@@ -7628,28 +7449,32 @@
         <v>272</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="I75" s="8"/>
-      <c r="J75" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="J75" s="10"/>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="13"/>
+      <c r="M75" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="N75" s="13" t="n">
+        <v>5449000000439</v>
+      </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R75" s="8"/>
+      <c r="R75" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
-      <c r="U75" s="26"/>
+      <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8" t="s">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
@@ -7659,31 +7484,29 @@
       <c r="AC75" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AD75" s="11" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="AD75" s="11"/>
       <c r="AE75" s="8"/>
       <c r="AF75" s="8"/>
       <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
+      <c r="AH75" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="AI75" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ75" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="BD75" s="7"/>
+      <c r="AMF75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="n">
         <v>63</v>
-      </c>
-      <c r="AK75" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL75" s="8" t="n">
-        <v>303</v>
-      </c>
-      <c r="BD75" s="0"/>
-      <c r="AMF75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
-        <v>64</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>38</v>
@@ -7698,40 +7521,34 @@
         <v>255</v>
       </c>
       <c r="F76" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="H76" s="8" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
-      <c r="M76" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>254</v>
-      </c>
+      <c r="M76" s="8"/>
+      <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
       <c r="Q76" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R76" s="8" t="s">
-        <v>238</v>
-      </c>
+      <c r="R76" s="8"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
       <c r="U76" s="26"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
@@ -7741,27 +7558,31 @@
       <c r="AC76" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AD76" s="11"/>
+      <c r="AD76" s="11" t="n">
+        <v>0.02</v>
+      </c>
       <c r="AE76" s="8"/>
       <c r="AF76" s="8"/>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
       <c r="AI76" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ76" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="AK76" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL76" s="8" t="n">
+        <v>303</v>
+      </c>
+      <c r="BD76" s="7"/>
+      <c r="AMF76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="AK76" s="8"/>
-      <c r="AL76" s="8" t="n">
-        <v>63</v>
-      </c>
-      <c r="BD76" s="0"/>
-      <c r="AMF76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
-        <v>65</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>38</v>
@@ -7776,34 +7597,40 @@
         <v>255</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="13"/>
+      <c r="M77" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R77" s="8"/>
+      <c r="R77" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
       <c r="U77" s="26"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
@@ -7822,20 +7649,18 @@
         <v>3</v>
       </c>
       <c r="AJ77" s="8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK77" s="18" t="s">
-        <v>279</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AK77" s="8"/>
       <c r="AL77" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="BD77" s="0"/>
-      <c r="AMF77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD77" s="7"/>
+      <c r="AMF77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>38</v>
@@ -7856,32 +7681,28 @@
         <v>281</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I78" s="8"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
-      <c r="M78" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="N78" s="13" t="n">
-        <v>4607042434877</v>
-      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="13"/>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R78" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="26"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
@@ -7895,25 +7716,25 @@
       <c r="AE78" s="8"/>
       <c r="AF78" s="8"/>
       <c r="AG78" s="8"/>
-      <c r="AH78" s="8" t="s">
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ78" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK78" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="AI78" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ78" s="8" t="n">
+      <c r="AL78" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="BD78" s="7"/>
+      <c r="AMF78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="n">
         <v>66</v>
-      </c>
-      <c r="AK78" s="8"/>
-      <c r="AL78" s="8" t="n">
-        <v>65</v>
-      </c>
-      <c r="BD78" s="0"/>
-      <c r="AMF78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
-        <v>67</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>38</v>
@@ -7941,10 +7762,10 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N79" s="13" t="n">
-        <v>4607042434891</v>
+        <v>4607042434877</v>
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -7959,7 +7780,7 @@
       <c r="U79" s="26"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
@@ -7980,18 +7801,18 @@
         <v>4</v>
       </c>
       <c r="AJ79" s="8" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK79" s="8"/>
       <c r="AL79" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="BD79" s="0"/>
-      <c r="AMF79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD79" s="7"/>
+      <c r="AMF79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>38</v>
@@ -8000,81 +7821,89 @@
         <v>39</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="G80" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>289</v>
-      </c>
       <c r="H80" s="8" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="I80" s="8"/>
-      <c r="J80" s="10" t="n">
-        <v>4</v>
-      </c>
+      <c r="J80" s="10"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="13"/>
+      <c r="M80" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N80" s="13" t="n">
+        <v>4607042434891</v>
+      </c>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R80" s="8"/>
+      <c r="R80" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
+      <c r="U80" s="26"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
+      <c r="W80" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
       <c r="AB80" s="8"/>
       <c r="AC80" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD80" s="11" t="n">
-        <v>0.03</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AD80" s="11"/>
       <c r="AE80" s="8"/>
       <c r="AF80" s="8"/>
       <c r="AG80" s="8"/>
-      <c r="AH80" s="8"/>
+      <c r="AH80" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="AI80" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ80" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK80" s="8"/>
+      <c r="AL80" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="BD80" s="7"/>
+      <c r="AMF80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="AK80" s="18" t="s">
+      <c r="B81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="AL80" s="8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD80" s="0"/>
-      <c r="AMF80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
-        <v>69</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="27"/>
       <c r="F81" s="8" t="s">
         <v>291</v>
       </c>
@@ -8082,7 +7911,7 @@
         <v>292</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="10" t="n">
@@ -8091,57 +7920,51 @@
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="8"/>
-      <c r="N81" s="13" t="s">
-        <v>293</v>
-      </c>
+      <c r="N81" s="13"/>
       <c r="O81" s="13"/>
-      <c r="P81" s="13" t="s">
-        <v>293</v>
-      </c>
+      <c r="P81" s="13"/>
       <c r="Q81" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R81" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="S81" s="8" t="s">
-        <v>295</v>
-      </c>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
       <c r="W81" s="8"/>
-      <c r="X81" s="8" t="s">
-        <v>296</v>
-      </c>
+      <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
       <c r="AB81" s="8"/>
       <c r="AC81" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD81" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="AD81" s="11" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE81" s="8"/>
       <c r="AF81" s="8"/>
-      <c r="AG81" s="19"/>
+      <c r="AG81" s="8"/>
       <c r="AH81" s="8"/>
       <c r="AI81" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ81" s="8" t="n">
+        <v>68</v>
+      </c>
+      <c r="AK81" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL81" s="8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD81" s="7"/>
+      <c r="AMF81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="n">
         <v>69</v>
-      </c>
-      <c r="AK81" s="8"/>
-      <c r="AL81" s="8" t="n">
-        <v>68</v>
-      </c>
-      <c r="BD81" s="0"/>
-      <c r="AMF81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
-        <v>70</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>38</v>
@@ -8152,37 +7975,43 @@
       <c r="D82" s="8"/>
       <c r="E82" s="27"/>
       <c r="F82" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I82" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="I82" s="8"/>
       <c r="J82" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="8" t="s">
-        <v>300</v>
+      <c r="N82" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="8"/>
+      <c r="P82" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="R82" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="S82" s="8"/>
+        <v>297</v>
+      </c>
+      <c r="S82" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8"/>
       <c r="X82" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
@@ -8194,26 +8023,24 @@
       <c r="AD82" s="11"/>
       <c r="AE82" s="8"/>
       <c r="AF82" s="8"/>
-      <c r="AG82" s="8" t="s">
-        <v>303</v>
-      </c>
+      <c r="AG82" s="19"/>
       <c r="AH82" s="8"/>
       <c r="AI82" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AJ82" s="8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK82" s="8"/>
       <c r="AL82" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="BD82" s="0"/>
-      <c r="AMF82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD82" s="7"/>
+      <c r="AMF82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>38</v>
@@ -8224,33 +8051,29 @@
       <c r="D83" s="8"/>
       <c r="E83" s="27"/>
       <c r="F83" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I83" s="8"/>
+        <v>302</v>
+      </c>
+      <c r="I83" s="19"/>
       <c r="J83" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
-      <c r="M83" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="N83" s="29" t="s">
-        <v>307</v>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
-      <c r="Q83" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q83" s="8"/>
       <c r="R83" s="8" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -8258,7 +8081,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
       <c r="X83" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
@@ -8270,24 +8093,28 @@
       <c r="AD83" s="11"/>
       <c r="AE83" s="8"/>
       <c r="AF83" s="8"/>
-      <c r="AG83" s="8"/>
-      <c r="AH83" s="8"/>
+      <c r="AG83" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH83" s="28" t="s">
+        <v>306</v>
+      </c>
       <c r="AI83" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AJ83" s="8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK83" s="8"/>
       <c r="AL83" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="BD83" s="0"/>
-      <c r="AMF83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD83" s="7"/>
+      <c r="AMF83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>38</v>
@@ -8298,29 +8125,33 @@
       <c r="D84" s="8"/>
       <c r="E84" s="27"/>
       <c r="F84" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I84" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="I84" s="8"/>
       <c r="J84" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8" t="s">
-        <v>311</v>
+      <c r="M84" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
-      <c r="Q84" s="8"/>
+      <c r="Q84" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="R84" s="8" t="s">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
@@ -8328,7 +8159,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
       <c r="X84" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
@@ -8340,26 +8171,24 @@
       <c r="AD84" s="11"/>
       <c r="AE84" s="8"/>
       <c r="AF84" s="8"/>
-      <c r="AG84" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH84" s="8"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="29"/>
       <c r="AI84" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AJ84" s="8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK84" s="8"/>
       <c r="AL84" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="BD84" s="0"/>
-      <c r="AMF84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD84" s="7"/>
+      <c r="AMF84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>38</v>
@@ -8367,158 +8196,148 @@
       <c r="C85" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="30"/>
+        <v>302</v>
+      </c>
+      <c r="I85" s="19"/>
+      <c r="J85" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="13"/>
+      <c r="N85" s="8" t="s">
+        <v>314</v>
+      </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
-      <c r="Q85" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="R85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
+      <c r="X85" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
       <c r="AC85" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD85" s="11" t="n">
-        <v>0.18</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AD85" s="11"/>
       <c r="AE85" s="8"/>
       <c r="AF85" s="8"/>
-      <c r="AG85" s="8"/>
-      <c r="AH85" s="8" t="s">
+      <c r="AG85" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH85" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI85" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ85" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="8" t="n">
+        <v>68</v>
+      </c>
+      <c r="BD85" s="7"/>
+      <c r="AMF85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="AI85" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ85" s="8" t="n">
-        <v>73</v>
-      </c>
-      <c r="AK85" s="18" t="s">
+      <c r="H86" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="AL85" s="8" t="n">
-        <v>311</v>
-      </c>
-      <c r="BD85" s="0"/>
-      <c r="AMF85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="n">
-        <v>74</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>323</v>
-      </c>
       <c r="I86" s="8"/>
-      <c r="J86" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K86" s="10" t="n">
-        <v>30</v>
-      </c>
+      <c r="J86" s="30"/>
+      <c r="K86" s="10"/>
       <c r="L86" s="10"/>
-      <c r="M86" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="N86" s="13" t="s">
-        <v>325</v>
-      </c>
+      <c r="M86" s="8"/>
+      <c r="N86" s="13"/>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8" t="s">
-        <v>326</v>
-      </c>
+      <c r="Q86" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
-      <c r="W86" s="8" t="s">
-        <v>327</v>
-      </c>
+      <c r="W86" s="8"/>
       <c r="X86" s="8"/>
-      <c r="Y86" s="8" t="s">
-        <v>328</v>
-      </c>
+      <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8"/>
       <c r="AB86" s="8"/>
       <c r="AC86" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD86" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="AD86" s="11" t="n">
+        <v>0.18</v>
+      </c>
       <c r="AE86" s="8"/>
       <c r="AF86" s="8"/>
-      <c r="AG86" s="8" t="s">
-        <v>329</v>
-      </c>
+      <c r="AG86" s="8"/>
       <c r="AH86" s="8" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AI86" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ86" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK86" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL86" s="8" t="n">
+        <v>311</v>
+      </c>
+      <c r="BD86" s="7"/>
+      <c r="AMF86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="AK86" s="8"/>
-      <c r="AL86" s="8" t="n">
-        <v>73</v>
-      </c>
-      <c r="BD86" s="0"/>
-      <c r="AMF86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
-        <v>75</v>
-      </c>
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
@@ -8529,48 +8348,48 @@
         <v>40</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="K87" s="10" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X87" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y87" s="8"/>
+        <v>330</v>
+      </c>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -8581,27 +8400,27 @@
       <c r="AE87" s="8"/>
       <c r="AF87" s="8"/>
       <c r="AG87" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AH87" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AI87" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AJ87" s="8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK87" s="8"/>
       <c r="AL87" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="BD87" s="0"/>
-      <c r="AMF87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD87" s="7"/>
+      <c r="AMF87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>38</v>
@@ -8613,43 +8432,47 @@
         <v>40</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K88" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="K88" s="10" t="n">
+        <v>24</v>
+      </c>
       <c r="L88" s="10"/>
       <c r="M88" s="8" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="X88" s="8"/>
+        <v>330</v>
+      </c>
+      <c r="X88" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
@@ -8660,24 +8483,28 @@
       <c r="AD88" s="11"/>
       <c r="AE88" s="8"/>
       <c r="AF88" s="8"/>
-      <c r="AG88" s="8"/>
-      <c r="AH88" s="8"/>
+      <c r="AG88" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH88" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="AI88" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AJ88" s="8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK88" s="8"/>
       <c r="AL88" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="BD88" s="0"/>
-      <c r="AMF88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD88" s="7"/>
+      <c r="AMF88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>38</v>
@@ -8689,43 +8516,43 @@
         <v>40</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="H89" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I89" s="19"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8" t="s">
-        <v>339</v>
+      <c r="M89" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N89" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="X89" s="8" t="s">
         <v>339</v>
       </c>
+      <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
@@ -8733,33 +8560,27 @@
       <c r="AC89" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AD89" s="11" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="AD89" s="11"/>
       <c r="AE89" s="8"/>
       <c r="AF89" s="8"/>
-      <c r="AG89" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="AH89" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
       <c r="AI89" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ89" s="8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK89" s="8"/>
       <c r="AL89" s="8" t="n">
-        <v>312</v>
-      </c>
-      <c r="BD89" s="0"/>
-      <c r="AMF89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="BD89" s="7"/>
+      <c r="AMF89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>38</v>
@@ -8771,48 +8592,44 @@
         <v>40</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F90" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I90" s="19"/>
+      <c r="J90" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H90" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="N90" s="13" t="s">
-        <v>325</v>
       </c>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8" t="s">
-        <v>328</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="X90" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
       <c r="AB90" s="8"/>
@@ -8825,27 +8642,27 @@
       <c r="AE90" s="8"/>
       <c r="AF90" s="8"/>
       <c r="AG90" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH90" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI90" s="8" t="n">
         <v>2</v>
       </c>
       <c r="AJ90" s="8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK90" s="8"/>
       <c r="AL90" s="8" t="n">
         <v>312</v>
       </c>
-      <c r="BD90" s="0"/>
-      <c r="AMF90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD90" s="7"/>
+      <c r="AMF90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>38</v>
@@ -8857,7 +8674,7 @@
         <v>40</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>345</v>
@@ -8866,34 +8683,44 @@
         <v>346</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="13"/>
+      <c r="K91" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>328</v>
+      </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
-      <c r="Q91" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="X91" s="8"/>
-      <c r="Y91" s="8"/>
+      <c r="Y91" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
       <c r="AC91" s="8" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="AD91" s="11" t="n">
         <v>0.03</v>
@@ -8901,29 +8728,27 @@
       <c r="AE91" s="8"/>
       <c r="AF91" s="8"/>
       <c r="AG91" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH91" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI91" s="8" t="n">
         <v>2</v>
       </c>
       <c r="AJ91" s="8" t="n">
-        <v>79</v>
-      </c>
-      <c r="AK91" s="18" t="s">
-        <v>347</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AK91" s="8"/>
       <c r="AL91" s="8" t="n">
         <v>312</v>
       </c>
-      <c r="BD91" s="0"/>
-      <c r="AMF91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD91" s="7"/>
+      <c r="AMF91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>38</v>
@@ -8934,7 +8759,9 @@
       <c r="D92" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="F92" s="8" t="s">
         <v>348</v>
       </c>
@@ -8942,72 +8769,64 @@
         <v>349</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="I92" s="19"/>
-      <c r="J92" s="10" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
-      <c r="M92" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="N92" s="13" t="s">
-        <v>352</v>
-      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="13"/>
       <c r="O92" s="13"/>
-      <c r="P92" s="13" t="s">
-        <v>352</v>
-      </c>
+      <c r="P92" s="13"/>
       <c r="Q92" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R92" s="32" t="s">
-        <v>294</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X92" s="8" t="s">
-        <v>353</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
       <c r="AC92" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD92" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="AD92" s="11" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE92" s="8"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH92" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI92" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ92" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK92" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="AK92" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="AL92" s="8" t="n">
-        <v>79</v>
-      </c>
-      <c r="BD92" s="0"/>
-      <c r="AMF92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="BD92" s="7"/>
+      <c r="AMF92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>38</v>
@@ -9020,36 +8839,46 @@
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="I93" s="19"/>
       <c r="J93" s="10" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="13"/>
+      <c r="M93" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
+      <c r="P93" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="Q93" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R93" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X93" s="8"/>
+        <v>330</v>
+      </c>
+      <c r="X93" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
@@ -9061,29 +8890,27 @@
       <c r="AE93" s="8"/>
       <c r="AF93" s="8"/>
       <c r="AG93" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH93" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI93" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AJ93" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="AK93" s="18" t="s">
-        <v>356</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AK93" s="8"/>
       <c r="AL93" s="8" t="n">
         <v>79</v>
       </c>
-      <c r="BD93" s="0"/>
-      <c r="AMF93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD93" s="7"/>
+      <c r="AMF93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>38</v>
@@ -9098,50 +8925,38 @@
       <c r="F94" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="H94" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K94" s="34"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="N94" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q94" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="R94" s="33" t="s">
-        <v>294</v>
-      </c>
+      <c r="H94" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I94" s="19"/>
+      <c r="J94" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X94" s="18" t="s">
-        <v>361</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
-      <c r="AB94" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="AB94" s="8"/>
       <c r="AC94" s="8" t="s">
         <v>84</v>
       </c>
@@ -9149,27 +8964,29 @@
       <c r="AE94" s="8"/>
       <c r="AF94" s="8"/>
       <c r="AG94" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH94" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI94" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ94" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="AK94" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL94" s="8" t="n">
+        <v>79</v>
+      </c>
+      <c r="BD94" s="7"/>
+      <c r="AMF94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="n">
         <v>83</v>
-      </c>
-      <c r="AK94" s="8"/>
-      <c r="AL94" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="BD94" s="0"/>
-      <c r="AMF94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="n">
-        <v>84</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>38</v>
@@ -9182,51 +8999,50 @@
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K95" s="10"/>
+      <c r="M95" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="N95" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="G95" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="H95" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I95" s="33"/>
-      <c r="J95" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="N95" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q95" s="33" t="s">
+      <c r="O95" s="13"/>
+      <c r="P95" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q95" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R95" s="33" t="s">
-        <v>294</v>
+      <c r="R95" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="X95" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
       <c r="AB95" s="8" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AC95" s="8" t="s">
         <v>84</v>
@@ -9235,27 +9051,27 @@
       <c r="AE95" s="8"/>
       <c r="AF95" s="8"/>
       <c r="AG95" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH95" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI95" s="8" t="n">
         <v>4</v>
       </c>
       <c r="AJ95" s="8" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK95" s="8"/>
       <c r="AL95" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="BD95" s="0"/>
-      <c r="AMF95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD95" s="7"/>
+      <c r="AMF95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>38</v>
@@ -9268,48 +9084,52 @@
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H96" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I96" s="19"/>
+      <c r="H96" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96" s="8"/>
       <c r="J96" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="8" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
+      <c r="P96" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="Q96" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R96" s="32" t="s">
-        <v>326</v>
+      <c r="R96" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="X96" s="18" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
-      <c r="AB96" s="8"/>
+      <c r="AB96" s="8" t="s">
+        <v>365</v>
+      </c>
       <c r="AC96" s="8" t="s">
         <v>84</v>
       </c>
@@ -9317,27 +9137,27 @@
       <c r="AE96" s="8"/>
       <c r="AF96" s="8"/>
       <c r="AG96" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH96" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI96" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ96" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK96" s="8"/>
       <c r="AL96" s="8" t="n">
-        <v>79</v>
-      </c>
-      <c r="BD96" s="0"/>
-      <c r="AMF96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="BD96" s="7"/>
+      <c r="AMF96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>38</v>
@@ -9348,9 +9168,7 @@
       <c r="D97" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>287</v>
-      </c>
+      <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
         <v>370</v>
       </c>
@@ -9360,62 +9178,68 @@
       <c r="H97" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="I97" s="8"/>
-      <c r="J97" s="10"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
-      <c r="M97" s="8"/>
+      <c r="M97" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="N97" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O97" s="13"/>
       <c r="P97" s="13"/>
-      <c r="Q97" s="8"/>
+      <c r="Q97" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="R97" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
       <c r="W97" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X97" s="8"/>
+        <v>330</v>
+      </c>
+      <c r="X97" s="18" t="s">
+        <v>369</v>
+      </c>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
       <c r="AC97" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD97" s="11" t="n">
-        <v>0.03</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AD97" s="11"/>
       <c r="AE97" s="8"/>
       <c r="AF97" s="8"/>
       <c r="AG97" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AH97" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AI97" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ97" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK97" s="8"/>
       <c r="AL97" s="8" t="n">
-        <v>312</v>
-      </c>
-      <c r="BD97" s="0"/>
-      <c r="AMF97" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="BD97" s="7"/>
+      <c r="AMF97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>38</v>
@@ -9424,101 +9248,111 @@
         <v>39</v>
       </c>
       <c r="D98" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="G98" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="H98" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="G98" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>378</v>
-      </c>
+      <c r="I98" s="8"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
+      <c r="N98" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
+      <c r="W98" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
-      <c r="AC98" s="8"/>
-      <c r="AD98" s="11"/>
+      <c r="AC98" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD98" s="11" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE98" s="8"/>
       <c r="AF98" s="8"/>
-      <c r="AG98" s="8"/>
-      <c r="AH98" s="8"/>
-      <c r="AI98" s="8"/>
+      <c r="AG98" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH98" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI98" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ98" s="8" t="n">
-        <v>93</v>
-      </c>
-      <c r="AK98" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK98" s="8"/>
+      <c r="AL98" s="8" t="n">
+        <v>312</v>
+      </c>
+      <c r="BD98" s="7"/>
+      <c r="AMF98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="AL98" s="8"/>
-      <c r="BD98" s="0"/>
-      <c r="AMF98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="n">
-        <v>88</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E99" s="27" t="s">
+      <c r="I99" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="F99" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G99" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="8"/>
-      <c r="N99" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
@@ -9538,18 +9372,18 @@
       <c r="AH99" s="8"/>
       <c r="AI99" s="8"/>
       <c r="AJ99" s="8" t="n">
-        <v>94</v>
-      </c>
-      <c r="AK99" s="8" t="n">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="AK99" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="AL99" s="8"/>
-      <c r="BD99" s="0"/>
-      <c r="AMF99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD99" s="7"/>
+      <c r="AMF99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>38</v>
@@ -9558,35 +9392,37 @@
         <v>39</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="O100" s="8"/>
+      <c r="M100" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="N100" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="O100" s="33"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
@@ -9606,18 +9442,18 @@
       <c r="AH100" s="8"/>
       <c r="AI100" s="8"/>
       <c r="AJ100" s="8" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK100" s="8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL100" s="8"/>
-      <c r="BD100" s="0"/>
-      <c r="AMF100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD100" s="7"/>
+      <c r="AMF100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>38</v>
@@ -9626,35 +9462,37 @@
         <v>39</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="O101" s="8"/>
+      <c r="M101" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="N101" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="O101" s="33"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
@@ -9674,18 +9512,18 @@
       <c r="AH101" s="8"/>
       <c r="AI101" s="8"/>
       <c r="AJ101" s="8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK101" s="8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL101" s="8"/>
-      <c r="BD101" s="0"/>
-      <c r="AMF101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD101" s="7"/>
+      <c r="AMF101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>38</v>
@@ -9694,35 +9532,37 @@
         <v>39</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="O102" s="8"/>
+      <c r="M102" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="N102" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="O102" s="33"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -9742,18 +9582,18 @@
       <c r="AH102" s="8"/>
       <c r="AI102" s="8"/>
       <c r="AJ102" s="8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK102" s="8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL102" s="8"/>
-      <c r="BD102" s="0"/>
-      <c r="AMF102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD102" s="7"/>
+      <c r="AMF102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>38</v>
@@ -9762,68 +9602,68 @@
         <v>39</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E103" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="G103" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="H103" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="I103" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="O103" s="8"/>
+      <c r="M103" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="N103" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="O103" s="33"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
-      <c r="W103" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X103" s="18" t="s">
-        <v>392</v>
-      </c>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
       <c r="AD103" s="11"/>
-      <c r="AE103" s="19"/>
+      <c r="AE103" s="8"/>
       <c r="AF103" s="8"/>
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="8"/>
       <c r="AJ103" s="8" t="n">
-        <v>98</v>
-      </c>
-      <c r="AK103" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="AK103" s="8" t="n">
+        <v>72</v>
+      </c>
       <c r="AL103" s="8"/>
-      <c r="BD103" s="37"/>
-      <c r="AMF103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD103" s="7"/>
+      <c r="AMF103" s="7"/>
+    </row>
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>38</v>
@@ -9832,43 +9672,45 @@
         <v>39</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="8"/>
-      <c r="N104" s="8" t="s">
-        <v>397</v>
+      <c r="N104" s="34" t="s">
+        <v>398</v>
       </c>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
+      <c r="W104" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="X104" s="18" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
@@ -9876,21 +9718,22 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
       <c r="AD104" s="11"/>
-      <c r="AE104" s="8"/>
+      <c r="AE104" s="19"/>
       <c r="AF104" s="8"/>
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="8"/>
       <c r="AJ104" s="8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK104" s="8"/>
       <c r="AL104" s="8"/>
-      <c r="AMF104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD104" s="35"/>
+      <c r="AMF104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>38</v>
@@ -9899,35 +9742,35 @@
         <v>39</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
@@ -9935,7 +9778,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="18" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
@@ -9943,21 +9786,21 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
       <c r="AD105" s="11"/>
-      <c r="AE105" s="19"/>
+      <c r="AE105" s="8"/>
       <c r="AF105" s="8"/>
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="8"/>
       <c r="AJ105" s="8" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AK105" s="8"/>
       <c r="AL105" s="8"/>
-      <c r="AMF105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMF105" s="7"/>
+    </row>
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>38</v>
@@ -9966,44 +9809,44 @@
         <v>39</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F106" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="H106" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="G106" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>384</v>
-      </c>
       <c r="I106" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
-      <c r="M106" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="N106" s="18" t="s">
-        <v>407</v>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
-      <c r="X106" s="8"/>
+      <c r="X106" s="18" t="s">
+        <v>406</v>
+      </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8"/>
@@ -10016,17 +9859,15 @@
       <c r="AH106" s="8"/>
       <c r="AI106" s="8"/>
       <c r="AJ106" s="8" t="n">
-        <v>102</v>
-      </c>
-      <c r="AK106" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="AL106" s="19"/>
-      <c r="AMF106" s="15"/>
-    </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="AK106" s="8"/>
+      <c r="AL106" s="8"/>
+      <c r="AMF106" s="7"/>
+    </row>
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>38</v>
@@ -10035,37 +9876,37 @@
         <v>39</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="32" t="s">
-        <v>406</v>
+      <c r="M107" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -10085,15 +9926,15 @@
       <c r="AH107" s="8"/>
       <c r="AI107" s="8"/>
       <c r="AJ107" s="8" t="n">
-        <v>103</v>
-      </c>
-      <c r="AK107" s="8" t="n">
-        <v>63</v>
+        <v>102</v>
+      </c>
+      <c r="AK107" s="18" t="s">
+        <v>416</v>
       </c>
       <c r="AL107" s="19"/>
       <c r="AMF107" s="15"/>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="n">
         <v>98</v>
       </c>
@@ -10104,37 +9945,37 @@
         <v>39</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
-      <c r="M108" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="N108" s="38" t="s">
-        <v>408</v>
+      <c r="M108" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="N108" s="36" t="s">
+        <v>417</v>
       </c>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -10157,7 +9998,7 @@
         <v>104</v>
       </c>
       <c r="AK108" s="18" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="AL108" s="19"/>
     </row>
@@ -10172,31 +10013,31 @@
         <v>39</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="27" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="8"/>
-      <c r="N109" s="39"/>
+      <c r="N109" s="36"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
@@ -10209,7 +10050,7 @@
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
-      <c r="AD109" s="40"/>
+      <c r="AD109" s="37"/>
       <c r="AE109" s="8"/>
       <c r="AF109" s="8"/>
       <c r="AG109" s="8"/>
@@ -10220,10 +10061,9 @@
       </c>
       <c r="AK109" s="8"/>
       <c r="AL109" s="8"/>
-      <c r="AMJ109" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL109"/>
+  <autoFilter ref="A1:AL122"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - REG.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5397E-ECEF-4F69-85CB-68D7217D7D48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF409E4-9500-4EB1-916A-CEBF1C861AAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AM$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AM$100</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AM$100</definedName>
+    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$100</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$100</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="398">
   <si>
     <t>Sorting</t>
   </si>
@@ -781,9 +781,6 @@
     <t>SSD Дисплей: Фейсинги</t>
   </si>
   <si>
-    <t>SSD Display: Lead SKU Coca-Cola - 1L/1.5L</t>
-  </si>
-  <si>
     <t>SSD Display: Lead SKU Coca-Cola - 1L</t>
   </si>
   <si>
@@ -1301,12 +1298,18 @@
   <si>
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1322,8 +1325,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,8 +1360,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1351,11 +1375,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1373,6 +1412,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1757,58 +1802,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK100"/>
+  <dimension ref="A1:AML100"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1"/>
-    <col min="2" max="2" width="16.6640625" style="1"/>
-    <col min="3" max="3" width="25.5546875" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="1"/>
+    <col min="3" max="3" width="25.5703125" style="1"/>
     <col min="4" max="4" width="15" style="1"/>
-    <col min="5" max="5" width="21.44140625" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="62.44140625" style="1"/>
-    <col min="8" max="8" width="89.44140625" style="1"/>
-    <col min="9" max="9" width="57.77734375" style="1"/>
-    <col min="10" max="10" width="21.6640625" style="1"/>
-    <col min="11" max="11" width="12.21875" style="1"/>
-    <col min="12" max="12" width="18" style="1"/>
-    <col min="13" max="13" width="18.5546875" style="1"/>
-    <col min="14" max="14" width="49.5546875" style="1"/>
-    <col min="15" max="15" width="104.5546875" style="1"/>
-    <col min="16" max="16" width="26.21875" style="1"/>
-    <col min="17" max="17" width="12.21875" style="1"/>
-    <col min="18" max="18" width="25.21875" style="1"/>
-    <col min="19" max="19" width="18.44140625" style="1"/>
-    <col min="20" max="20" width="11.88671875" style="1"/>
-    <col min="21" max="21" width="19.21875" style="1"/>
-    <col min="22" max="22" width="24" style="1"/>
-    <col min="23" max="23" width="30.21875" style="1"/>
-    <col min="24" max="24" width="29.6640625" style="1"/>
-    <col min="25" max="25" width="66.77734375" style="1"/>
-    <col min="26" max="26" width="33.109375" style="1"/>
-    <col min="27" max="27" width="34.44140625" style="1"/>
-    <col min="28" max="28" width="35.33203125" style="1"/>
-    <col min="29" max="29" width="21.5546875" style="1"/>
-    <col min="30" max="30" width="21.6640625" style="1"/>
-    <col min="31" max="31" width="18.33203125" style="1"/>
-    <col min="32" max="32" width="17" style="1"/>
-    <col min="33" max="33" width="17.77734375" style="1"/>
-    <col min="34" max="34" width="32.88671875" style="1"/>
-    <col min="35" max="35" width="114.21875" style="1"/>
-    <col min="36" max="36" width="10.33203125" style="1"/>
-    <col min="37" max="37" width="12.109375" style="1"/>
-    <col min="38" max="38" width="14.77734375" style="1"/>
-    <col min="39" max="39" width="12.88671875" style="1"/>
-    <col min="40" max="1025" width="12" style="1"/>
+    <col min="5" max="5" width="21.42578125" style="1"/>
+    <col min="6" max="6" width="62.42578125" style="1"/>
+    <col min="7" max="7" width="89.42578125" style="1"/>
+    <col min="8" max="8" width="57.7109375" style="1"/>
+    <col min="9" max="9" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="1"/>
+    <col min="12" max="12" width="12.28515625" style="1"/>
+    <col min="13" max="13" width="18" style="1"/>
+    <col min="14" max="14" width="18.5703125" style="1"/>
+    <col min="15" max="15" width="49.5703125" style="1"/>
+    <col min="16" max="16" width="104.5703125" style="1"/>
+    <col min="17" max="17" width="26.28515625" style="1"/>
+    <col min="18" max="18" width="12.28515625" style="1"/>
+    <col min="19" max="19" width="25.28515625" style="1"/>
+    <col min="20" max="20" width="18.42578125" style="1"/>
+    <col min="21" max="21" width="11.85546875" style="1"/>
+    <col min="22" max="22" width="19.28515625" style="1"/>
+    <col min="23" max="23" width="24" style="1"/>
+    <col min="24" max="24" width="30.28515625" style="1"/>
+    <col min="25" max="25" width="29.7109375" style="1"/>
+    <col min="26" max="26" width="66.7109375" style="1"/>
+    <col min="27" max="27" width="33.140625" style="1"/>
+    <col min="28" max="28" width="34.42578125" style="1"/>
+    <col min="29" max="29" width="35.28515625" style="1"/>
+    <col min="30" max="30" width="21.5703125" style="1"/>
+    <col min="31" max="31" width="21.7109375" style="1"/>
+    <col min="32" max="32" width="18.28515625" style="1"/>
+    <col min="33" max="33" width="17" style="1"/>
+    <col min="34" max="34" width="17.7109375" style="1"/>
+    <col min="35" max="35" width="32.85546875" style="1"/>
+    <col min="36" max="36" width="114.28515625" style="1"/>
+    <col min="37" max="37" width="10.28515625" style="1"/>
+    <col min="38" max="38" width="12.140625" style="1"/>
+    <col min="39" max="39" width="14.7109375" style="1"/>
+    <col min="40" max="40" width="12.85546875" style="1"/>
+    <col min="41" max="1026" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1824,107 +1870,113 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1938,47 +1990,46 @@
         <v>40</v>
       </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2"/>
+        <v>40</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="Q2"/>
+      <c r="P2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="W2"/>
+      <c r="U2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AC2"/>
+      <c r="AA2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AH2"/>
+      <c r="AF2"/>
       <c r="AI2"/>
-      <c r="AJ2" s="1">
+      <c r="AJ2"/>
+      <c r="AK2" s="1">
         <v>1</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>300</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM2"/>
-    </row>
-    <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN2"/>
+    </row>
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1994,51 +2045,56 @@
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3"/>
+      <c r="I3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="Q3"/>
+      <c r="P3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="W3"/>
+      <c r="U3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AC3"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AA3"/>
+      <c r="AD3"/>
+      <c r="AE3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE3"/>
-      <c r="AH3"/>
+      <c r="AF3"/>
       <c r="AI3"/>
-      <c r="AJ3" s="1">
+      <c r="AJ3"/>
+      <c r="AK3" s="1">
         <v>2</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>1</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AN3" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2054,65 +2110,64 @@
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" s="1">
+      <c r="K4"/>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4" s="1" t="s">
+      <c r="R4"/>
+      <c r="S4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T4"/>
-      <c r="W4" s="1" t="s">
+      <c r="U4"/>
+      <c r="X4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC4"/>
-      <c r="AD4" s="1" t="s">
+      <c r="Z4"/>
+      <c r="AA4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD4"/>
+      <c r="AE4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>1.8874999999999999E-2</v>
       </c>
-      <c r="AH4"/>
       <c r="AI4"/>
-      <c r="AJ4" s="1">
+      <c r="AJ4"/>
+      <c r="AK4" s="1">
         <v>3</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>2</v>
       </c>
-      <c r="AL4"/>
-      <c r="AM4" s="1">
+      <c r="AM4"/>
+      <c r="AN4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2128,65 +2183,64 @@
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5"/>
+      <c r="S5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T5"/>
-      <c r="W5" s="1" t="s">
+      <c r="U5"/>
+      <c r="X5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC5"/>
-      <c r="AD5" s="1" t="s">
+      <c r="Z5"/>
+      <c r="AA5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>1.8874999999999999E-2</v>
       </c>
-      <c r="AH5"/>
       <c r="AI5"/>
-      <c r="AJ5" s="1">
-        <v>3</v>
-      </c>
+      <c r="AJ5"/>
       <c r="AK5" s="1">
         <v>3</v>
       </c>
-      <c r="AL5"/>
-      <c r="AM5" s="1">
+      <c r="AL5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM5"/>
+      <c r="AN5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2202,65 +2256,64 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" s="1">
+      <c r="P6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6"/>
+      <c r="X6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD6"/>
+      <c r="AE6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1.8874999999999999E-2</v>
+      </c>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6" s="1">
         <v>1</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6"/>
-      <c r="R6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6"/>
-      <c r="W6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC6"/>
-      <c r="AD6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>1.8874999999999999E-2</v>
-      </c>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL6"/>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2276,65 +2329,64 @@
       <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7"/>
-      <c r="K7" s="1">
+      <c r="K7"/>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" s="1" t="s">
+      <c r="N7"/>
+      <c r="O7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q7"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7"/>
+      <c r="S7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T7"/>
-      <c r="W7" s="1" t="s">
+      <c r="U7"/>
+      <c r="X7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC7"/>
-      <c r="AD7" s="1" t="s">
+      <c r="Z7"/>
+      <c r="AA7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>1.8874999999999999E-2</v>
       </c>
-      <c r="AH7"/>
       <c r="AI7"/>
-      <c r="AJ7" s="1">
+      <c r="AJ7"/>
+      <c r="AK7" s="1">
         <v>3</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>5</v>
       </c>
-      <c r="AL7"/>
-      <c r="AM7" s="1">
+      <c r="AM7"/>
+      <c r="AN7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2350,65 +2402,64 @@
       <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" s="1">
+      <c r="P8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8"/>
+      <c r="X8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1.8874999999999999E-2</v>
+      </c>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>14</v>
+      </c>
+      <c r="AM8"/>
+      <c r="AN8" s="1">
         <v>1</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8"/>
-      <c r="R8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8"/>
-      <c r="W8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC8"/>
-      <c r="AD8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>1.8874999999999999E-2</v>
-      </c>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL8"/>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2424,65 +2475,64 @@
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" s="1">
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9"/>
+      <c r="X9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1.8874999999999999E-2</v>
+      </c>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM9"/>
+      <c r="AN9" s="1">
         <v>1</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9"/>
-      <c r="R9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9"/>
-      <c r="W9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC9"/>
-      <c r="AD9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>1.8874999999999999E-2</v>
-      </c>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL9"/>
-      <c r="AM9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2498,65 +2548,64 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" s="1">
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10"/>
+      <c r="X10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1.8874999999999999E-2</v>
+      </c>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM10"/>
+      <c r="AN10" s="1">
         <v>1</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10"/>
-      <c r="R10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10"/>
-      <c r="W10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC10"/>
-      <c r="AD10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>1.8874999999999999E-2</v>
-      </c>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AL10"/>
-      <c r="AM10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2572,65 +2621,64 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" s="1">
+      <c r="P11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11"/>
+      <c r="X11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1.8874999999999999E-2</v>
+      </c>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM11"/>
+      <c r="AN11" s="1">
         <v>1</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11"/>
-      <c r="R11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11"/>
-      <c r="W11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC11"/>
-      <c r="AD11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>1.8874999999999999E-2</v>
-      </c>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>9</v>
-      </c>
-      <c r="AL11"/>
-      <c r="AM11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2646,65 +2694,64 @@
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" s="1">
+      <c r="P12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12"/>
+      <c r="X12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM12"/>
+      <c r="AN12" s="1">
         <v>1</v>
       </c>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12"/>
-      <c r="R12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12"/>
-      <c r="W12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC12"/>
-      <c r="AD12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>12</v>
-      </c>
-      <c r="AL12"/>
-      <c r="AM12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2720,65 +2767,64 @@
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" s="1">
+      <c r="P13" s="1">
+        <v>42099697</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13"/>
+      <c r="X13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>603</v>
+      </c>
+      <c r="AM13"/>
+      <c r="AN13" s="1">
         <v>1</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="1">
-        <v>42099697</v>
-      </c>
-      <c r="Q13"/>
-      <c r="R13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13"/>
-      <c r="W13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC13"/>
-      <c r="AD13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>603</v>
-      </c>
-      <c r="AL13"/>
-      <c r="AM13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2794,65 +2840,64 @@
       <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14"/>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J14"/>
-      <c r="K14" s="1">
+      <c r="K14"/>
+      <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="1" t="s">
+      <c r="N14"/>
+      <c r="O14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q14"/>
-      <c r="R14" s="1" t="s">
+      <c r="R14"/>
+      <c r="S14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T14"/>
-      <c r="W14" s="1" t="s">
+      <c r="U14"/>
+      <c r="X14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X14"/>
       <c r="Y14"/>
-      <c r="Z14" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC14"/>
-      <c r="AD14" s="1" t="s">
+      <c r="Z14"/>
+      <c r="AA14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH14"/>
       <c r="AI14"/>
-      <c r="AJ14" s="1">
+      <c r="AJ14"/>
+      <c r="AK14" s="1">
         <v>3</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>15</v>
       </c>
-      <c r="AL14"/>
-      <c r="AM14" s="1">
+      <c r="AM14"/>
+      <c r="AN14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2868,65 +2913,64 @@
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" s="1">
+      <c r="P15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15"/>
+      <c r="X15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AM15"/>
+      <c r="AN15" s="1">
         <v>1</v>
       </c>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q15"/>
-      <c r="R15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15"/>
-      <c r="W15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC15"/>
-      <c r="AD15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>16</v>
-      </c>
-      <c r="AL15"/>
-      <c r="AM15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2942,65 +2986,64 @@
       <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J16"/>
-      <c r="K16" s="1">
+      <c r="K16"/>
+      <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" s="1" t="s">
+      <c r="N16"/>
+      <c r="O16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q16"/>
-      <c r="R16" s="1" t="s">
+      <c r="R16"/>
+      <c r="S16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T16"/>
-      <c r="W16" s="1" t="s">
+      <c r="U16"/>
+      <c r="X16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC16"/>
-      <c r="AD16" s="1" t="s">
+      <c r="Z16"/>
+      <c r="AA16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH16"/>
       <c r="AI16"/>
-      <c r="AJ16" s="1">
+      <c r="AJ16"/>
+      <c r="AK16" s="1">
         <v>3</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>6</v>
       </c>
-      <c r="AL16"/>
-      <c r="AM16" s="1">
+      <c r="AM16"/>
+      <c r="AN16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3016,65 +3059,64 @@
       <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" s="1">
+      <c r="P17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17"/>
+      <c r="X17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>17</v>
+      </c>
+      <c r="AM17"/>
+      <c r="AN17" s="1">
         <v>1</v>
       </c>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17"/>
-      <c r="R17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17"/>
-      <c r="W17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC17"/>
-      <c r="AD17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>17</v>
-      </c>
-      <c r="AL17"/>
-      <c r="AM17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3090,65 +3132,64 @@
       <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" s="1">
+      <c r="P18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18"/>
+      <c r="X18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM18"/>
+      <c r="AN18" s="1">
         <v>1</v>
       </c>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18"/>
-      <c r="R18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18"/>
-      <c r="W18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC18"/>
-      <c r="AD18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>18</v>
-      </c>
-      <c r="AL18"/>
-      <c r="AM18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3164,65 +3205,64 @@
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F19"/>
+      <c r="F19" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19" s="1">
+      <c r="P19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19"/>
+      <c r="X19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>19</v>
+      </c>
+      <c r="AM19"/>
+      <c r="AN19" s="1">
         <v>1</v>
       </c>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19"/>
-      <c r="R19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T19"/>
-      <c r="W19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC19"/>
-      <c r="AD19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL19"/>
-      <c r="AM19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3238,65 +3278,64 @@
       <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20"/>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" s="1">
+      <c r="P20" s="1">
+        <v>5449000064110</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20"/>
+      <c r="X20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD20"/>
+      <c r="AE20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>602</v>
+      </c>
+      <c r="AM20"/>
+      <c r="AN20" s="1">
         <v>1</v>
       </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" s="1">
-        <v>5449000064110</v>
-      </c>
-      <c r="Q20"/>
-      <c r="R20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20"/>
-      <c r="W20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC20"/>
-      <c r="AD20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>602</v>
-      </c>
-      <c r="AL20"/>
-      <c r="AM20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3312,65 +3351,64 @@
       <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="G21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" s="1">
+      <c r="P21" s="1">
+        <v>5449000046390</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21"/>
+      <c r="X21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>640</v>
+      </c>
+      <c r="AM21"/>
+      <c r="AN21" s="1">
         <v>1</v>
       </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="1">
-        <v>5449000046390</v>
-      </c>
-      <c r="Q21"/>
-      <c r="R21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21"/>
-      <c r="W21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC21"/>
-      <c r="AD21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>640</v>
-      </c>
-      <c r="AL21"/>
-      <c r="AM21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3386,65 +3424,64 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22"/>
+      <c r="F22" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" s="1">
+      <c r="P22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22"/>
+      <c r="X22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD22"/>
+      <c r="AE22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>11</v>
+      </c>
+      <c r="AM22"/>
+      <c r="AN22" s="1">
         <v>1</v>
       </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22"/>
-      <c r="R22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22"/>
-      <c r="W22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC22"/>
-      <c r="AD22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>11</v>
-      </c>
-      <c r="AL22"/>
-      <c r="AM22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -3460,51 +3497,56 @@
       <c r="E23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F23"/>
+      <c r="F23" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J23"/>
+      <c r="I23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
-      <c r="Q23"/>
+      <c r="P23"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
-      <c r="W23"/>
+      <c r="U23"/>
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
-      <c r="AC23"/>
-      <c r="AD23" s="1" t="s">
+      <c r="AA23"/>
+      <c r="AD23"/>
+      <c r="AE23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE23"/>
-      <c r="AH23"/>
+      <c r="AF23"/>
       <c r="AI23"/>
-      <c r="AJ23" s="1">
+      <c r="AJ23"/>
+      <c r="AK23" s="1">
         <v>2</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <v>22</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AM23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AN23" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -3520,65 +3562,64 @@
       <c r="E24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F24"/>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q24"/>
-      <c r="R24" s="1" t="s">
+      <c r="R24"/>
+      <c r="S24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T24"/>
-      <c r="W24" s="1" t="s">
+      <c r="U24"/>
+      <c r="X24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X24"/>
       <c r="Y24"/>
-      <c r="Z24" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC24"/>
-      <c r="AD24" s="1" t="s">
+      <c r="Z24"/>
+      <c r="AA24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AF24" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="AH24"/>
       <c r="AI24"/>
-      <c r="AJ24" s="1">
+      <c r="AJ24"/>
+      <c r="AK24" s="1">
         <v>3</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>23</v>
       </c>
-      <c r="AL24"/>
-      <c r="AM24" s="1">
+      <c r="AM24"/>
+      <c r="AN24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -3594,65 +3635,64 @@
       <c r="E25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F25"/>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q25"/>
-      <c r="R25" s="1" t="s">
+      <c r="R25"/>
+      <c r="S25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T25"/>
-      <c r="W25" s="1" t="s">
+      <c r="U25"/>
+      <c r="X25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X25"/>
       <c r="Y25"/>
-      <c r="Z25" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC25"/>
-      <c r="AD25" s="1" t="s">
+      <c r="Z25"/>
+      <c r="AA25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD25"/>
+      <c r="AE25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AF25" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH25"/>
       <c r="AI25"/>
-      <c r="AJ25" s="1">
+      <c r="AJ25"/>
+      <c r="AK25" s="1">
         <v>3</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AL25" s="1">
         <v>24</v>
       </c>
-      <c r="AL25"/>
-      <c r="AM25" s="1">
+      <c r="AM25"/>
+      <c r="AN25" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -3668,65 +3708,64 @@
       <c r="E26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q26"/>
-      <c r="R26" s="1" t="s">
+      <c r="R26"/>
+      <c r="S26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T26"/>
-      <c r="W26" s="1" t="s">
+      <c r="U26"/>
+      <c r="X26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X26"/>
       <c r="Y26"/>
-      <c r="Z26" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC26"/>
-      <c r="AD26" s="1" t="s">
+      <c r="Z26"/>
+      <c r="AA26" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD26"/>
+      <c r="AE26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AF26" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH26"/>
       <c r="AI26"/>
-      <c r="AJ26" s="1">
+      <c r="AJ26"/>
+      <c r="AK26" s="1">
         <v>3</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <v>25</v>
       </c>
-      <c r="AL26"/>
-      <c r="AM26" s="1">
+      <c r="AM26"/>
+      <c r="AN26" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -3742,65 +3781,64 @@
       <c r="E27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q27"/>
-      <c r="R27" s="1" t="s">
+      <c r="R27"/>
+      <c r="S27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T27"/>
-      <c r="W27" s="1" t="s">
+      <c r="U27"/>
+      <c r="X27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X27"/>
       <c r="Y27"/>
-      <c r="Z27" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC27"/>
-      <c r="AD27" s="1" t="s">
+      <c r="Z27"/>
+      <c r="AA27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD27"/>
+      <c r="AE27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AF27" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH27"/>
       <c r="AI27"/>
-      <c r="AJ27" s="1">
+      <c r="AJ27"/>
+      <c r="AK27" s="1">
         <v>3</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AL27" s="1">
         <v>26</v>
       </c>
-      <c r="AL27"/>
-      <c r="AM27" s="1">
+      <c r="AM27"/>
+      <c r="AN27" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>33</v>
       </c>
@@ -3816,51 +3854,56 @@
       <c r="E28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J28"/>
+      <c r="I28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
-      <c r="Q28"/>
+      <c r="P28"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
-      <c r="W28"/>
+      <c r="U28"/>
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
-      <c r="AC28"/>
-      <c r="AD28" s="1" t="s">
+      <c r="AA28"/>
+      <c r="AD28"/>
+      <c r="AE28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE28"/>
-      <c r="AH28"/>
+      <c r="AF28"/>
       <c r="AI28"/>
-      <c r="AJ28" s="1">
+      <c r="AJ28"/>
+      <c r="AK28" s="1">
         <v>2</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <v>29</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AM28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AN28" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>34</v>
       </c>
@@ -3876,65 +3919,64 @@
       <c r="E29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F29"/>
+      <c r="F29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q29"/>
-      <c r="R29" s="1" t="s">
+      <c r="R29"/>
+      <c r="S29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T29"/>
-      <c r="W29" s="1" t="s">
+      <c r="U29"/>
+      <c r="X29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC29"/>
-      <c r="AD29" s="1" t="s">
+      <c r="Z29"/>
+      <c r="AA29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD29"/>
+      <c r="AE29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AF29" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH29"/>
       <c r="AI29"/>
-      <c r="AJ29" s="1">
+      <c r="AJ29"/>
+      <c r="AK29" s="1">
         <v>3</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <v>30</v>
       </c>
-      <c r="AL29"/>
-      <c r="AM29" s="1">
+      <c r="AM29"/>
+      <c r="AN29" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35</v>
       </c>
@@ -3950,65 +3992,64 @@
       <c r="E30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F30"/>
+      <c r="F30" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q30"/>
-      <c r="R30" s="1" t="s">
+      <c r="R30"/>
+      <c r="S30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T30"/>
-      <c r="W30" s="1" t="s">
+      <c r="U30"/>
+      <c r="X30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X30"/>
       <c r="Y30"/>
-      <c r="Z30" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC30"/>
-      <c r="AD30" s="1" t="s">
+      <c r="Z30"/>
+      <c r="AA30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD30"/>
+      <c r="AE30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AF30" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH30"/>
       <c r="AI30"/>
-      <c r="AJ30" s="1">
+      <c r="AJ30"/>
+      <c r="AK30" s="1">
         <v>3</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <v>31</v>
       </c>
-      <c r="AL30"/>
-      <c r="AM30" s="1">
+      <c r="AM30"/>
+      <c r="AN30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>36</v>
       </c>
@@ -4024,65 +4065,64 @@
       <c r="E31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F31"/>
+      <c r="F31" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>5060517888794</v>
       </c>
-      <c r="Q31"/>
-      <c r="R31" s="1" t="s">
+      <c r="R31"/>
+      <c r="S31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T31"/>
-      <c r="W31" s="1" t="s">
+      <c r="U31"/>
+      <c r="X31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X31"/>
       <c r="Y31"/>
-      <c r="Z31" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC31"/>
-      <c r="AD31" s="1" t="s">
+      <c r="Z31"/>
+      <c r="AA31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD31"/>
+      <c r="AE31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AF31" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH31"/>
       <c r="AI31"/>
-      <c r="AJ31" s="1">
+      <c r="AJ31"/>
+      <c r="AK31" s="1">
         <v>3</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <v>650</v>
       </c>
-      <c r="AL31"/>
-      <c r="AM31" s="1">
+      <c r="AM31"/>
+      <c r="AN31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>38</v>
       </c>
@@ -4098,51 +4138,56 @@
       <c r="E32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F32"/>
+      <c r="F32" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J32"/>
+      <c r="I32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
-      <c r="Q32"/>
+      <c r="P32"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
-      <c r="W32"/>
+      <c r="U32"/>
       <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
-      <c r="AC32"/>
-      <c r="AD32" s="1" t="s">
+      <c r="AA32"/>
+      <c r="AD32"/>
+      <c r="AE32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE32"/>
-      <c r="AH32"/>
+      <c r="AF32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="1">
+      <c r="AJ32"/>
+      <c r="AK32" s="1">
         <v>2</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AL32" s="1">
         <v>33</v>
       </c>
-      <c r="AL32" s="3" t="s">
+      <c r="AM32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AN32" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39</v>
       </c>
@@ -4158,65 +4203,64 @@
       <c r="E33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F33"/>
+      <c r="F33" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="G33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q33"/>
-      <c r="R33" s="1" t="s">
+      <c r="R33"/>
+      <c r="S33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T33"/>
-      <c r="W33" s="1" t="s">
+      <c r="U33"/>
+      <c r="X33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC33"/>
-      <c r="AD33" s="1" t="s">
+      <c r="Z33"/>
+      <c r="AA33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD33"/>
+      <c r="AE33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AF33" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="1">
+      <c r="AJ33"/>
+      <c r="AK33" s="1">
         <v>3</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AL33" s="1">
         <v>34</v>
       </c>
-      <c r="AL33"/>
-      <c r="AM33" s="1">
+      <c r="AM33"/>
+      <c r="AN33" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40</v>
       </c>
@@ -4232,65 +4276,64 @@
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q34"/>
-      <c r="R34" s="1" t="s">
+      <c r="R34"/>
+      <c r="S34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T34"/>
-      <c r="W34" s="1" t="s">
+      <c r="U34"/>
+      <c r="X34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X34"/>
       <c r="Y34"/>
-      <c r="Z34" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC34"/>
-      <c r="AD34" s="1" t="s">
+      <c r="Z34"/>
+      <c r="AA34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AF34" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="1">
+      <c r="AJ34"/>
+      <c r="AK34" s="1">
         <v>3</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AL34" s="1">
         <v>35</v>
       </c>
-      <c r="AL34"/>
-      <c r="AM34" s="1">
+      <c r="AM34"/>
+      <c r="AN34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41</v>
       </c>
@@ -4306,65 +4349,64 @@
       <c r="E35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F35"/>
+      <c r="F35" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="G35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q35"/>
-      <c r="R35" s="1" t="s">
+      <c r="R35"/>
+      <c r="S35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T35"/>
-      <c r="W35" s="1" t="s">
+      <c r="U35"/>
+      <c r="X35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC35"/>
-      <c r="AD35" s="1" t="s">
+      <c r="Z35"/>
+      <c r="AA35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD35"/>
+      <c r="AE35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AF35" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="1">
+      <c r="AJ35"/>
+      <c r="AK35" s="1">
         <v>3</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AL35" s="1">
         <v>36</v>
       </c>
-      <c r="AL35"/>
-      <c r="AM35" s="1">
+      <c r="AM35"/>
+      <c r="AN35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42</v>
       </c>
@@ -4380,65 +4422,64 @@
       <c r="E36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F36"/>
+      <c r="F36" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q36"/>
-      <c r="R36" s="1" t="s">
+      <c r="R36"/>
+      <c r="S36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T36"/>
-      <c r="W36" s="1" t="s">
+      <c r="U36"/>
+      <c r="X36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X36"/>
       <c r="Y36"/>
-      <c r="Z36" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC36"/>
-      <c r="AD36" s="1" t="s">
+      <c r="Z36"/>
+      <c r="AA36" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD36"/>
+      <c r="AE36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AF36" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH36"/>
       <c r="AI36"/>
-      <c r="AJ36" s="1">
+      <c r="AJ36"/>
+      <c r="AK36" s="1">
         <v>3</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AL36" s="1">
         <v>37</v>
       </c>
-      <c r="AL36"/>
-      <c r="AM36" s="1">
+      <c r="AM36"/>
+      <c r="AN36" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44</v>
       </c>
@@ -4454,51 +4495,56 @@
       <c r="E37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F37"/>
+      <c r="F37" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J37"/>
+      <c r="I37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
-      <c r="Q37"/>
+      <c r="P37"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
-      <c r="W37"/>
+      <c r="U37"/>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
-      <c r="AC37"/>
-      <c r="AD37" s="1" t="s">
+      <c r="AA37"/>
+      <c r="AD37"/>
+      <c r="AE37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE37"/>
-      <c r="AH37"/>
+      <c r="AF37"/>
       <c r="AI37"/>
-      <c r="AJ37" s="1">
+      <c r="AJ37"/>
+      <c r="AK37" s="1">
         <v>2</v>
       </c>
-      <c r="AK37" s="1">
-        <v>39</v>
-      </c>
-      <c r="AL37" s="3" t="s">
+      <c r="AL37" s="1">
+        <v>39</v>
+      </c>
+      <c r="AM37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AN37" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -4514,65 +4560,64 @@
       <c r="E38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F38"/>
+      <c r="F38" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q38"/>
-      <c r="R38" s="1" t="s">
+      <c r="R38"/>
+      <c r="S38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T38"/>
-      <c r="W38" s="1" t="s">
+      <c r="U38"/>
+      <c r="X38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X38"/>
       <c r="Y38"/>
-      <c r="Z38" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC38"/>
-      <c r="AD38" s="1" t="s">
+      <c r="Z38"/>
+      <c r="AA38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD38"/>
+      <c r="AE38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AF38" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH38"/>
       <c r="AI38"/>
-      <c r="AJ38" s="1">
+      <c r="AJ38"/>
+      <c r="AK38" s="1">
         <v>3</v>
       </c>
-      <c r="AK38" s="1">
-        <v>40</v>
-      </c>
-      <c r="AL38"/>
-      <c r="AM38" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL38" s="1">
+        <v>40</v>
+      </c>
+      <c r="AM38"/>
+      <c r="AN38" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -4588,65 +4633,64 @@
       <c r="E39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F39"/>
+      <c r="F39" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="G39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q39"/>
-      <c r="R39" s="1" t="s">
+      <c r="R39"/>
+      <c r="S39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T39"/>
-      <c r="W39" s="1" t="s">
+      <c r="U39"/>
+      <c r="X39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X39"/>
       <c r="Y39"/>
-      <c r="Z39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC39"/>
-      <c r="AD39" s="1" t="s">
+      <c r="Z39"/>
+      <c r="AA39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD39"/>
+      <c r="AE39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AF39" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH39"/>
       <c r="AI39"/>
-      <c r="AJ39" s="1">
+      <c r="AJ39"/>
+      <c r="AK39" s="1">
         <v>3</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AL39" s="1">
         <v>41</v>
       </c>
-      <c r="AL39"/>
-      <c r="AM39" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM39"/>
+      <c r="AN39" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47</v>
       </c>
@@ -4662,65 +4706,64 @@
       <c r="E40" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F40"/>
+      <c r="F40" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Q40"/>
-      <c r="R40" s="1" t="s">
+      <c r="R40"/>
+      <c r="S40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T40"/>
-      <c r="W40" s="1" t="s">
+      <c r="U40"/>
+      <c r="X40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X40"/>
       <c r="Y40"/>
-      <c r="Z40" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC40"/>
-      <c r="AD40" s="1" t="s">
+      <c r="Z40"/>
+      <c r="AA40" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD40"/>
+      <c r="AE40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AF40" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH40"/>
       <c r="AI40"/>
-      <c r="AJ40" s="1">
+      <c r="AJ40"/>
+      <c r="AK40" s="1">
         <v>3</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AL40" s="1">
         <v>42</v>
       </c>
-      <c r="AL40"/>
-      <c r="AM40" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM40"/>
+      <c r="AN40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>48</v>
       </c>
@@ -4736,65 +4779,64 @@
       <c r="E41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F41"/>
+      <c r="F41" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="G41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q41"/>
-      <c r="R41" s="1" t="s">
+      <c r="R41"/>
+      <c r="S41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T41"/>
-      <c r="W41" s="1" t="s">
+      <c r="U41"/>
+      <c r="X41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X41"/>
       <c r="Y41"/>
-      <c r="Z41" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC41"/>
-      <c r="AD41" s="1" t="s">
+      <c r="Z41"/>
+      <c r="AA41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD41"/>
+      <c r="AE41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AF41" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH41"/>
       <c r="AI41"/>
-      <c r="AJ41" s="1">
+      <c r="AJ41"/>
+      <c r="AK41" s="1">
         <v>3</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AL41" s="1">
         <v>43</v>
       </c>
-      <c r="AL41"/>
-      <c r="AM41" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM41"/>
+      <c r="AN41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>49</v>
       </c>
@@ -4810,65 +4852,64 @@
       <c r="E42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F42"/>
+      <c r="F42" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Q42"/>
-      <c r="R42" s="1" t="s">
+      <c r="R42"/>
+      <c r="S42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T42"/>
-      <c r="W42" s="1" t="s">
+      <c r="U42"/>
+      <c r="X42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X42"/>
       <c r="Y42"/>
-      <c r="Z42" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC42"/>
-      <c r="AD42" s="1" t="s">
+      <c r="Z42"/>
+      <c r="AA42" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD42"/>
+      <c r="AE42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AF42" s="1">
         <v>1.6775000000000002E-2</v>
       </c>
-      <c r="AH42"/>
       <c r="AI42"/>
-      <c r="AJ42" s="1">
+      <c r="AJ42"/>
+      <c r="AK42" s="1">
         <v>3</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AL42" s="1">
         <v>44</v>
       </c>
-      <c r="AL42"/>
-      <c r="AM42" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM42"/>
+      <c r="AN42" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -4884,65 +4925,64 @@
       <c r="E43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F43"/>
+      <c r="F43" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="G43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q43"/>
-      <c r="R43" s="1" t="s">
+      <c r="R43"/>
+      <c r="S43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T43"/>
-      <c r="W43" s="1" t="s">
+      <c r="U43"/>
+      <c r="X43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X43"/>
       <c r="Y43"/>
-      <c r="Z43" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC43"/>
-      <c r="AD43" s="1" t="s">
+      <c r="Z43"/>
+      <c r="AA43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD43"/>
+      <c r="AE43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE43" s="1">
+      <c r="AF43" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH43"/>
       <c r="AI43"/>
-      <c r="AJ43" s="1">
+      <c r="AJ43"/>
+      <c r="AK43" s="1">
         <v>3</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AL43" s="1">
         <v>46</v>
       </c>
-      <c r="AL43"/>
-      <c r="AM43" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM43"/>
+      <c r="AN43" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>51</v>
       </c>
@@ -4958,65 +4998,64 @@
       <c r="E44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F44"/>
+      <c r="F44" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="G44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q44"/>
-      <c r="R44" s="1" t="s">
+      <c r="R44"/>
+      <c r="S44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T44"/>
-      <c r="W44" s="1" t="s">
+      <c r="U44"/>
+      <c r="X44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X44"/>
       <c r="Y44"/>
-      <c r="Z44" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC44"/>
-      <c r="AD44" s="1" t="s">
+      <c r="Z44"/>
+      <c r="AA44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD44"/>
+      <c r="AE44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AF44" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH44"/>
       <c r="AI44"/>
-      <c r="AJ44" s="1">
+      <c r="AJ44"/>
+      <c r="AK44" s="1">
         <v>3</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AL44" s="1">
         <v>47</v>
       </c>
-      <c r="AL44"/>
-      <c r="AM44" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM44"/>
+      <c r="AN44" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>52</v>
       </c>
@@ -5032,65 +5071,64 @@
       <c r="E45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F45"/>
+      <c r="F45" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="G45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q45"/>
-      <c r="R45" s="1" t="s">
+      <c r="R45"/>
+      <c r="S45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T45"/>
-      <c r="W45" s="1" t="s">
+      <c r="U45"/>
+      <c r="X45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X45"/>
       <c r="Y45"/>
-      <c r="Z45" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC45"/>
-      <c r="AD45" s="1" t="s">
+      <c r="Z45"/>
+      <c r="AA45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD45"/>
+      <c r="AE45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE45" s="1">
+      <c r="AF45" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH45"/>
       <c r="AI45"/>
-      <c r="AJ45" s="1">
+      <c r="AJ45"/>
+      <c r="AK45" s="1">
         <v>3</v>
       </c>
-      <c r="AK45" s="1">
+      <c r="AL45" s="1">
         <v>48</v>
       </c>
-      <c r="AL45"/>
-      <c r="AM45" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM45"/>
+      <c r="AN45" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>53</v>
       </c>
@@ -5106,65 +5144,64 @@
       <c r="E46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F46"/>
+      <c r="F46" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q46"/>
-      <c r="R46" s="1" t="s">
+      <c r="R46"/>
+      <c r="S46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T46"/>
-      <c r="W46" s="1" t="s">
+      <c r="U46"/>
+      <c r="X46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X46"/>
       <c r="Y46"/>
-      <c r="Z46" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC46"/>
-      <c r="AD46" s="1" t="s">
+      <c r="Z46"/>
+      <c r="AA46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD46"/>
+      <c r="AE46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE46" s="1">
+      <c r="AF46" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AH46"/>
       <c r="AI46"/>
-      <c r="AJ46" s="1">
+      <c r="AJ46"/>
+      <c r="AK46" s="1">
         <v>3</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AL46" s="1">
         <v>50</v>
       </c>
-      <c r="AL46"/>
-      <c r="AM46" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM46"/>
+      <c r="AN46" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>57</v>
       </c>
@@ -5178,46 +5215,45 @@
         <v>40</v>
       </c>
       <c r="E47"/>
-      <c r="F47"/>
+      <c r="F47" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47"/>
+        <v>40</v>
+      </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
-      <c r="Q47"/>
+      <c r="P47"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
-      <c r="X47"/>
+      <c r="U47"/>
       <c r="Y47"/>
       <c r="Z47"/>
-      <c r="AC47"/>
+      <c r="AA47"/>
       <c r="AD47"/>
       <c r="AE47"/>
-      <c r="AH47"/>
+      <c r="AF47"/>
       <c r="AI47"/>
-      <c r="AJ47" s="1">
+      <c r="AJ47"/>
+      <c r="AK47" s="1">
         <v>1</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AL47" s="1">
         <v>520</v>
       </c>
-      <c r="AL47" s="3" t="s">
+      <c r="AM47" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AM47"/>
-    </row>
-    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN47"/>
+    </row>
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>58</v>
       </c>
@@ -5231,48 +5267,47 @@
         <v>40</v>
       </c>
       <c r="E48"/>
-      <c r="F48"/>
+      <c r="F48" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48"/>
+        <v>40</v>
+      </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
-      <c r="Q48"/>
+      <c r="P48"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
-      <c r="X48"/>
+      <c r="U48"/>
       <c r="Y48"/>
       <c r="Z48"/>
-      <c r="AC48"/>
+      <c r="AA48"/>
       <c r="AD48"/>
       <c r="AE48"/>
-      <c r="AH48"/>
+      <c r="AF48"/>
       <c r="AI48"/>
-      <c r="AJ48" s="1">
+      <c r="AJ48"/>
+      <c r="AK48" s="1">
         <v>1</v>
       </c>
-      <c r="AK48" s="1">
+      <c r="AL48" s="1">
         <v>501</v>
       </c>
-      <c r="AL48" s="1">
+      <c r="AM48" s="1">
         <v>52</v>
       </c>
-      <c r="AM48" s="1">
+      <c r="AN48" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>59</v>
       </c>
@@ -5288,60 +5323,59 @@
       <c r="E49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F49"/>
+      <c r="F49" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J49"/>
-      <c r="K49" s="1">
+      <c r="K49"/>
+      <c r="L49" s="1">
         <v>15</v>
       </c>
-      <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="1" t="s">
+      <c r="N49"/>
+      <c r="O49" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" s="1" t="s">
+      <c r="S49"/>
+      <c r="T49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T49"/>
-      <c r="X49" s="1" t="s">
+      <c r="U49"/>
+      <c r="Y49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y49"/>
       <c r="Z49"/>
-      <c r="AC49"/>
-      <c r="AD49" s="1" t="s">
+      <c r="AA49"/>
+      <c r="AD49"/>
+      <c r="AE49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE49" s="1">
+      <c r="AF49" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH49"/>
       <c r="AI49"/>
-      <c r="AJ49" s="1">
+      <c r="AJ49"/>
+      <c r="AK49" s="1">
         <v>2</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AL49" s="1">
         <v>52</v>
       </c>
-      <c r="AL49"/>
-      <c r="AM49" s="1">
+      <c r="AM49"/>
+      <c r="AN49" s="1">
         <v>501</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>60</v>
       </c>
@@ -5355,48 +5389,47 @@
         <v>40</v>
       </c>
       <c r="E50"/>
-      <c r="F50"/>
+      <c r="F50" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50"/>
+        <v>40</v>
+      </c>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
-      <c r="Q50"/>
+      <c r="P50"/>
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
-      <c r="X50"/>
+      <c r="U50"/>
       <c r="Y50"/>
       <c r="Z50"/>
-      <c r="AC50"/>
+      <c r="AA50"/>
       <c r="AD50"/>
       <c r="AE50"/>
-      <c r="AH50"/>
+      <c r="AF50"/>
       <c r="AI50"/>
-      <c r="AJ50" s="1">
+      <c r="AJ50"/>
+      <c r="AK50" s="1">
         <v>1</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AL50" s="1">
         <v>503</v>
       </c>
-      <c r="AL50" s="1">
+      <c r="AM50" s="1">
         <v>53</v>
       </c>
-      <c r="AM50" s="1">
+      <c r="AN50" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>61</v>
       </c>
@@ -5412,60 +5445,59 @@
       <c r="E51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F51"/>
+      <c r="F51" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J51"/>
-      <c r="K51" s="1">
+      <c r="K51"/>
+      <c r="L51" s="1">
         <v>8</v>
       </c>
-      <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="1" t="s">
+      <c r="N51"/>
+      <c r="O51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="1" t="s">
+      <c r="S51"/>
+      <c r="T51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T51"/>
-      <c r="X51" s="1" t="s">
+      <c r="U51"/>
+      <c r="Y51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y51"/>
       <c r="Z51"/>
-      <c r="AC51"/>
-      <c r="AD51" s="1" t="s">
+      <c r="AA51"/>
+      <c r="AD51"/>
+      <c r="AE51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE51" s="1">
+      <c r="AF51" s="1">
         <v>0.01</v>
       </c>
-      <c r="AH51"/>
       <c r="AI51"/>
-      <c r="AJ51" s="1">
+      <c r="AJ51"/>
+      <c r="AK51" s="1">
         <v>2</v>
       </c>
-      <c r="AK51" s="1">
+      <c r="AL51" s="1">
         <v>53</v>
       </c>
-      <c r="AL51"/>
-      <c r="AM51" s="1">
+      <c r="AM51"/>
+      <c r="AN51" s="1">
         <v>503</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>62</v>
       </c>
@@ -5479,48 +5511,47 @@
         <v>40</v>
       </c>
       <c r="E52"/>
-      <c r="F52"/>
+      <c r="F52" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52"/>
+        <v>40</v>
+      </c>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
-      <c r="Q52"/>
+      <c r="P52"/>
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
-      <c r="X52"/>
+      <c r="U52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AC52"/>
+      <c r="AA52"/>
       <c r="AD52"/>
       <c r="AE52"/>
-      <c r="AH52"/>
+      <c r="AF52"/>
       <c r="AI52"/>
-      <c r="AJ52" s="1">
+      <c r="AJ52"/>
+      <c r="AK52" s="1">
         <v>1</v>
       </c>
-      <c r="AK52" s="1">
+      <c r="AL52" s="1">
         <v>504</v>
       </c>
-      <c r="AL52" s="1">
+      <c r="AM52" s="1">
         <v>54</v>
       </c>
-      <c r="AM52" s="1">
+      <c r="AN52" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>63</v>
       </c>
@@ -5534,60 +5565,59 @@
         <v>40</v>
       </c>
       <c r="E53"/>
-      <c r="F53"/>
+      <c r="F53" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J53"/>
-      <c r="K53" s="1">
+      <c r="K53"/>
+      <c r="L53" s="1">
         <v>6</v>
       </c>
-      <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" s="1" t="s">
+      <c r="N53"/>
+      <c r="O53" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53" s="1" t="s">
+      <c r="S53"/>
+      <c r="T53" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T53"/>
-      <c r="X53" s="1" t="s">
+      <c r="U53"/>
+      <c r="Y53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y53"/>
       <c r="Z53"/>
-      <c r="AC53"/>
-      <c r="AD53" s="1" t="s">
+      <c r="AA53"/>
+      <c r="AD53"/>
+      <c r="AE53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE53" s="1">
+      <c r="AF53" s="1">
         <v>0.01</v>
       </c>
-      <c r="AH53"/>
       <c r="AI53"/>
-      <c r="AJ53" s="1">
+      <c r="AJ53"/>
+      <c r="AK53" s="1">
         <v>2</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AL53" s="1">
         <v>54</v>
       </c>
-      <c r="AL53"/>
-      <c r="AM53" s="1">
+      <c r="AM53"/>
+      <c r="AN53" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -5601,48 +5631,47 @@
         <v>40</v>
       </c>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54"/>
+        <v>40</v>
+      </c>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
-      <c r="Q54"/>
+      <c r="P54"/>
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="X54"/>
+      <c r="U54"/>
       <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AC54"/>
+      <c r="AA54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-      <c r="AH54"/>
+      <c r="AF54"/>
       <c r="AI54"/>
-      <c r="AJ54" s="1">
+      <c r="AJ54"/>
+      <c r="AK54" s="1">
         <v>1</v>
       </c>
-      <c r="AK54" s="1">
+      <c r="AL54" s="1">
         <v>505</v>
       </c>
-      <c r="AL54" s="1">
+      <c r="AM54" s="1">
         <v>55</v>
       </c>
-      <c r="AM54" s="1">
+      <c r="AN54" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>65</v>
       </c>
@@ -5656,60 +5685,59 @@
         <v>40</v>
       </c>
       <c r="E55"/>
-      <c r="F55"/>
+      <c r="F55" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G55" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J55"/>
-      <c r="K55" s="1">
+      <c r="K55"/>
+      <c r="L55" s="1">
         <v>6</v>
       </c>
-      <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="1" t="s">
+      <c r="N55"/>
+      <c r="O55" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q55"/>
       <c r="R55"/>
-      <c r="S55" s="1" t="s">
+      <c r="S55"/>
+      <c r="T55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T55"/>
-      <c r="X55" s="1" t="s">
+      <c r="U55"/>
+      <c r="Y55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y55"/>
       <c r="Z55"/>
-      <c r="AC55"/>
-      <c r="AD55" s="1" t="s">
+      <c r="AA55"/>
+      <c r="AD55"/>
+      <c r="AE55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE55" s="1">
+      <c r="AF55" s="1">
         <v>0.01</v>
       </c>
-      <c r="AH55"/>
       <c r="AI55"/>
-      <c r="AJ55" s="1">
+      <c r="AJ55"/>
+      <c r="AK55" s="1">
         <v>2</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AL55" s="1">
         <v>55</v>
       </c>
-      <c r="AL55"/>
-      <c r="AM55" s="1">
+      <c r="AM55"/>
+      <c r="AN55" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>66</v>
       </c>
@@ -5723,48 +5751,47 @@
         <v>40</v>
       </c>
       <c r="E56"/>
-      <c r="F56"/>
+      <c r="F56" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56"/>
+        <v>40</v>
+      </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
-      <c r="Q56"/>
+      <c r="P56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56"/>
-      <c r="X56"/>
+      <c r="U56"/>
       <c r="Y56"/>
       <c r="Z56"/>
-      <c r="AC56"/>
+      <c r="AA56"/>
       <c r="AD56"/>
       <c r="AE56"/>
-      <c r="AH56"/>
+      <c r="AF56"/>
       <c r="AI56"/>
-      <c r="AJ56" s="1">
+      <c r="AJ56"/>
+      <c r="AK56" s="1">
         <v>1</v>
       </c>
-      <c r="AK56" s="1">
+      <c r="AL56" s="1">
         <v>502</v>
       </c>
-      <c r="AL56" s="1">
+      <c r="AM56" s="1">
         <v>56</v>
       </c>
-      <c r="AM56" s="1">
+      <c r="AN56" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>67</v>
       </c>
@@ -5780,60 +5807,59 @@
       <c r="E57" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F57"/>
+      <c r="F57" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J57"/>
-      <c r="K57" s="1">
+      <c r="K57"/>
+      <c r="L57" s="1">
         <v>35</v>
       </c>
-      <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" s="1" t="s">
+      <c r="N57"/>
+      <c r="O57" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="Q57"/>
       <c r="R57"/>
-      <c r="S57" s="1" t="s">
+      <c r="S57"/>
+      <c r="T57" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T57"/>
-      <c r="X57" s="1" t="s">
+      <c r="U57"/>
+      <c r="Y57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y57"/>
       <c r="Z57"/>
-      <c r="AC57"/>
-      <c r="AD57" s="1" t="s">
+      <c r="AA57"/>
+      <c r="AD57"/>
+      <c r="AE57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE57" s="1">
+      <c r="AF57" s="1">
         <v>0.06</v>
       </c>
-      <c r="AH57"/>
       <c r="AI57"/>
-      <c r="AJ57" s="1">
+      <c r="AJ57"/>
+      <c r="AK57" s="1">
         <v>2</v>
       </c>
-      <c r="AK57" s="1">
+      <c r="AL57" s="1">
         <v>56</v>
       </c>
-      <c r="AL57"/>
-      <c r="AM57" s="1">
+      <c r="AM57"/>
+      <c r="AN57" s="1">
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>68</v>
       </c>
@@ -5847,46 +5873,45 @@
         <v>40</v>
       </c>
       <c r="E58"/>
-      <c r="F58"/>
+      <c r="F58" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58"/>
+        <v>40</v>
+      </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
-      <c r="Q58"/>
+      <c r="P58"/>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="X58"/>
+      <c r="U58"/>
       <c r="Y58"/>
       <c r="Z58"/>
-      <c r="AC58"/>
+      <c r="AA58"/>
       <c r="AD58"/>
       <c r="AE58"/>
-      <c r="AH58"/>
+      <c r="AF58"/>
       <c r="AI58"/>
-      <c r="AJ58" s="1">
+      <c r="AJ58"/>
+      <c r="AK58" s="1">
         <v>1</v>
       </c>
-      <c r="AK58" s="1">
+      <c r="AL58" s="1">
         <v>301</v>
       </c>
-      <c r="AL58" s="3" t="s">
+      <c r="AM58" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AM58"/>
-    </row>
-    <row r="59" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN58"/>
+    </row>
+    <row r="59" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>69</v>
       </c>
@@ -5900,48 +5925,47 @@
         <v>40</v>
       </c>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59"/>
+        <v>40</v>
+      </c>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
-      <c r="Q59"/>
+      <c r="P59"/>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59"/>
-      <c r="X59"/>
+      <c r="U59"/>
       <c r="Y59"/>
       <c r="Z59"/>
-      <c r="AC59"/>
+      <c r="AA59"/>
       <c r="AD59"/>
       <c r="AE59"/>
-      <c r="AH59"/>
+      <c r="AF59"/>
       <c r="AI59"/>
-      <c r="AJ59" s="1">
+      <c r="AJ59"/>
+      <c r="AK59" s="1">
         <v>1</v>
       </c>
-      <c r="AK59" s="1">
+      <c r="AL59" s="1">
         <v>302</v>
       </c>
-      <c r="AL59" s="1">
+      <c r="AM59" s="1">
         <v>57</v>
       </c>
-      <c r="AM59" s="1">
+      <c r="AN59" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>70</v>
       </c>
@@ -5957,58 +5981,59 @@
       <c r="E60" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F60"/>
+      <c r="F60" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="J60"/>
-      <c r="K60" s="1">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60"/>
+      <c r="L60" s="1">
         <v>2</v>
       </c>
-      <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
-      <c r="Q60"/>
-      <c r="R60" s="1" t="s">
+      <c r="P60"/>
+      <c r="R60"/>
+      <c r="S60" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="S60"/>
       <c r="T60"/>
-      <c r="X60" s="1" t="s">
+      <c r="U60"/>
+      <c r="Y60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Y60"/>
       <c r="Z60"/>
-      <c r="AC60"/>
-      <c r="AD60" s="1" t="s">
+      <c r="AA60"/>
+      <c r="AD60"/>
+      <c r="AE60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE60" s="1">
+      <c r="AF60" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH60"/>
       <c r="AI60"/>
-      <c r="AJ60" s="1">
+      <c r="AJ60"/>
+      <c r="AK60" s="1">
         <v>2</v>
       </c>
-      <c r="AK60" s="1">
+      <c r="AL60" s="1">
         <v>57</v>
       </c>
-      <c r="AL60" s="3" t="s">
+      <c r="AM60" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AM60" s="1">
+      <c r="AN60" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>71</v>
       </c>
@@ -6024,60 +6049,59 @@
       <c r="E61" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F61"/>
+      <c r="F61" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="G61" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J61"/>
-      <c r="K61" s="1">
+      <c r="K61"/>
+      <c r="L61" s="1">
         <v>12</v>
       </c>
-      <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="1" t="s">
+      <c r="N61"/>
+      <c r="O61" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q61"/>
-      <c r="R61" s="1" t="s">
+      <c r="R61"/>
+      <c r="S61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S61" s="1" t="s">
+      <c r="T61" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T61"/>
-      <c r="X61" s="1" t="s">
+      <c r="U61"/>
+      <c r="Y61" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Y61"/>
       <c r="Z61"/>
-      <c r="AC61"/>
-      <c r="AD61" s="1" t="s">
+      <c r="AA61"/>
+      <c r="AD61"/>
+      <c r="AE61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE61"/>
-      <c r="AH61"/>
+      <c r="AF61"/>
       <c r="AI61"/>
-      <c r="AJ61" s="1">
+      <c r="AJ61"/>
+      <c r="AK61" s="1">
         <v>3</v>
       </c>
-      <c r="AK61" s="1">
+      <c r="AL61" s="1">
         <v>58</v>
       </c>
-      <c r="AL61"/>
-      <c r="AM61" s="1">
+      <c r="AM61"/>
+      <c r="AN61" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>72</v>
       </c>
@@ -6099,52 +6123,49 @@
       <c r="G62" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62" s="1">
+      <c r="K62"/>
+      <c r="L62" s="1">
         <v>1</v>
       </c>
-      <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
-      <c r="Q62"/>
-      <c r="R62" s="1" t="s">
+      <c r="P62"/>
+      <c r="R62"/>
+      <c r="S62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S62"/>
       <c r="T62"/>
-      <c r="X62" s="1" t="s">
+      <c r="U62"/>
+      <c r="Y62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Y62"/>
       <c r="Z62"/>
-      <c r="AC62"/>
-      <c r="AD62" s="1" t="s">
+      <c r="AA62"/>
+      <c r="AD62"/>
+      <c r="AE62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE62"/>
-      <c r="AH62"/>
+      <c r="AF62"/>
       <c r="AI62"/>
-      <c r="AJ62" s="1">
+      <c r="AJ62"/>
+      <c r="AK62" s="1">
         <v>3</v>
       </c>
-      <c r="AK62" s="1">
+      <c r="AL62" s="1">
         <v>59</v>
       </c>
-      <c r="AL62" s="3">
+      <c r="AM62" s="3">
         <v>60</v>
       </c>
-      <c r="AM62" s="1">
+      <c r="AN62" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>73</v>
       </c>
@@ -6160,59 +6181,59 @@
       <c r="E63" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F63" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>236</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="1" t="s">
+      <c r="N63"/>
+      <c r="O63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="P63" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q63"/>
-      <c r="R63" s="1" t="s">
+      <c r="R63"/>
+      <c r="S63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T63"/>
-      <c r="X63" s="1" t="s">
+      <c r="U63"/>
+      <c r="Y63" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Y63"/>
       <c r="Z63"/>
-      <c r="AC63"/>
-      <c r="AD63" s="1" t="s">
+      <c r="AA63"/>
+      <c r="AD63"/>
+      <c r="AE63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE63"/>
-      <c r="AH63"/>
-      <c r="AI63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ63" s="1">
+      <c r="AF63"/>
+      <c r="AI63"/>
+      <c r="AJ63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK63" s="1">
         <v>4</v>
       </c>
-      <c r="AK63" s="1">
+      <c r="AL63" s="1">
         <v>60</v>
       </c>
-      <c r="AL63"/>
-      <c r="AM63" s="1">
+      <c r="AM63"/>
+      <c r="AN63" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>75</v>
       </c>
@@ -6226,47 +6247,47 @@
         <v>40</v>
       </c>
       <c r="E64"/>
+      <c r="F64" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>240</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64"/>
+        <v>40</v>
+      </c>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
-      <c r="Q64"/>
+      <c r="P64"/>
       <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
-      <c r="X64"/>
+      <c r="U64"/>
       <c r="Y64"/>
       <c r="Z64"/>
-      <c r="AC64"/>
+      <c r="AA64"/>
       <c r="AD64"/>
       <c r="AE64"/>
-      <c r="AH64"/>
+      <c r="AF64"/>
       <c r="AI64"/>
-      <c r="AJ64" s="1">
+      <c r="AJ64"/>
+      <c r="AK64" s="1">
         <v>1</v>
       </c>
-      <c r="AK64" s="1">
+      <c r="AL64" s="1">
         <v>303</v>
       </c>
-      <c r="AL64" s="1">
+      <c r="AM64" s="1">
         <v>63</v>
       </c>
-      <c r="AM64" s="1">
+      <c r="AN64" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>76</v>
       </c>
@@ -6282,57 +6303,59 @@
       <c r="E65" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="J65"/>
-      <c r="K65" s="1">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65"/>
+      <c r="L65" s="1">
         <v>2</v>
       </c>
-      <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
-      <c r="Q65"/>
-      <c r="R65" s="1" t="s">
+      <c r="P65"/>
+      <c r="R65"/>
+      <c r="S65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S65"/>
       <c r="T65"/>
-      <c r="X65" s="1" t="s">
+      <c r="U65"/>
+      <c r="Y65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AD65"/>
+      <c r="AE65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>63</v>
+      </c>
+      <c r="AM65" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AC65"/>
-      <c r="AD65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK65" s="1">
-        <v>63</v>
-      </c>
-      <c r="AL65" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM65" s="1">
+      <c r="AN65" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>77</v>
       </c>
@@ -6348,59 +6371,59 @@
       <c r="E66" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F66" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>246</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J66"/>
-      <c r="K66" s="1">
+      <c r="K66"/>
+      <c r="L66" s="1">
         <v>12</v>
       </c>
-      <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="1" t="s">
+      <c r="N66"/>
+      <c r="O66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="Q66"/>
-      <c r="R66" s="1" t="s">
+      <c r="R66"/>
+      <c r="S66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T66"/>
-      <c r="X66" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y66"/>
+      <c r="U66"/>
+      <c r="Y66" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="Z66"/>
-      <c r="AC66"/>
-      <c r="AD66" s="1" t="s">
+      <c r="AA66"/>
+      <c r="AD66"/>
+      <c r="AE66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE66"/>
-      <c r="AH66"/>
+      <c r="AF66"/>
       <c r="AI66"/>
-      <c r="AJ66" s="1">
+      <c r="AJ66"/>
+      <c r="AK66" s="1">
         <v>3</v>
       </c>
-      <c r="AK66" s="1">
+      <c r="AL66" s="1">
         <v>64</v>
       </c>
-      <c r="AL66"/>
-      <c r="AM66" s="1">
+      <c r="AM66"/>
+      <c r="AN66" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>78</v>
       </c>
@@ -6416,55 +6439,55 @@
       <c r="E67" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>248</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67" s="1">
+        <v>234</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67" s="1">
         <v>1</v>
       </c>
-      <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67"/>
-      <c r="Q67"/>
-      <c r="R67" s="1" t="s">
+      <c r="P67"/>
+      <c r="R67"/>
+      <c r="S67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S67"/>
       <c r="T67"/>
-      <c r="X67" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y67"/>
+      <c r="U67"/>
+      <c r="Y67" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="Z67"/>
-      <c r="AC67"/>
-      <c r="AD67" s="1" t="s">
+      <c r="AA67"/>
+      <c r="AD67"/>
+      <c r="AE67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE67"/>
-      <c r="AH67"/>
+      <c r="AF67"/>
       <c r="AI67"/>
-      <c r="AJ67" s="1">
+      <c r="AJ67"/>
+      <c r="AK67" s="1">
         <v>3</v>
       </c>
-      <c r="AK67" s="1">
+      <c r="AL67" s="1">
         <v>65</v>
       </c>
-      <c r="AL67" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM67" s="1">
+      <c r="AM67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN67" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>79</v>
       </c>
@@ -6480,59 +6503,59 @@
       <c r="E68" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F68" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J68"/>
+        <v>237</v>
+      </c>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68" s="1" t="s">
+      <c r="N68"/>
+      <c r="O68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O68" s="1">
+      <c r="P68" s="1">
         <v>4607042434877</v>
       </c>
-      <c r="Q68"/>
-      <c r="R68" s="1" t="s">
+      <c r="R68"/>
+      <c r="S68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="T68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T68"/>
-      <c r="X68" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y68"/>
+      <c r="U68"/>
+      <c r="Y68" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="Z68"/>
-      <c r="AC68"/>
-      <c r="AD68" s="1" t="s">
+      <c r="AA68"/>
+      <c r="AD68"/>
+      <c r="AE68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE68"/>
-      <c r="AH68"/>
-      <c r="AI68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ68" s="1">
+      <c r="AF68"/>
+      <c r="AI68"/>
+      <c r="AJ68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK68" s="1">
         <v>4</v>
       </c>
-      <c r="AK68" s="1">
+      <c r="AL68" s="1">
         <v>66</v>
       </c>
-      <c r="AL68"/>
-      <c r="AM68" s="1">
+      <c r="AM68"/>
+      <c r="AN68" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>80</v>
       </c>
@@ -6548,59 +6571,59 @@
       <c r="E69" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F69" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>254</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J69"/>
+        <v>237</v>
+      </c>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="1" t="s">
+      <c r="N69"/>
+      <c r="O69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O69" s="1">
+      <c r="P69" s="1">
         <v>4607042434891</v>
       </c>
-      <c r="Q69"/>
-      <c r="R69" s="1" t="s">
+      <c r="R69"/>
+      <c r="S69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T69"/>
-      <c r="X69" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y69"/>
+      <c r="U69"/>
+      <c r="Y69" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="Z69"/>
-      <c r="AC69"/>
-      <c r="AD69" s="1" t="s">
+      <c r="AA69"/>
+      <c r="AD69"/>
+      <c r="AE69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE69"/>
-      <c r="AH69"/>
-      <c r="AI69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ69" s="1">
+      <c r="AF69"/>
+      <c r="AI69"/>
+      <c r="AJ69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK69" s="1">
         <v>4</v>
       </c>
-      <c r="AK69" s="1">
+      <c r="AL69" s="1">
         <v>67</v>
       </c>
-      <c r="AL69"/>
-      <c r="AM69" s="1">
+      <c r="AM69"/>
+      <c r="AN69" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>81</v>
       </c>
@@ -6611,60 +6634,62 @@
         <v>39</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70" s="1">
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70"/>
+      <c r="L70" s="1">
         <v>4</v>
       </c>
-      <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
-      <c r="Q70"/>
-      <c r="R70" s="1" t="s">
+      <c r="P70"/>
+      <c r="R70"/>
+      <c r="S70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S70"/>
       <c r="T70"/>
-      <c r="X70"/>
+      <c r="U70"/>
       <c r="Y70"/>
       <c r="Z70"/>
-      <c r="AC70"/>
-      <c r="AD70" s="1" t="s">
+      <c r="AA70"/>
+      <c r="AD70"/>
+      <c r="AE70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE70" s="1">
+      <c r="AF70" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH70"/>
       <c r="AI70"/>
-      <c r="AJ70" s="1">
+      <c r="AJ70"/>
+      <c r="AK70" s="1">
         <v>2</v>
       </c>
-      <c r="AK70" s="1">
+      <c r="AL70" s="1">
         <v>68</v>
       </c>
-      <c r="AL70" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM70" s="1">
+      <c r="AM70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN70" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>82</v>
       </c>
@@ -6676,61 +6701,61 @@
       </c>
       <c r="D71"/>
       <c r="E71"/>
+      <c r="F71" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>263</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I71" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J71"/>
-      <c r="K71" s="1">
+      <c r="K71"/>
+      <c r="L71" s="1">
         <v>3</v>
       </c>
-      <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71" s="1" t="s">
+      <c r="O71"/>
+      <c r="P71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T71" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="Q71" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S71" s="1" t="s">
+      <c r="U71" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="T71" s="1" t="s">
+      <c r="Y71"/>
+      <c r="Z71" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="X71"/>
-      <c r="Y71" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z71"/>
-      <c r="AC71"/>
-      <c r="AD71" s="1" t="s">
+      <c r="AA71"/>
+      <c r="AD71"/>
+      <c r="AE71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE71"/>
-      <c r="AH71"/>
+      <c r="AF71"/>
       <c r="AI71"/>
-      <c r="AJ71" s="1">
+      <c r="AJ71"/>
+      <c r="AK71" s="1">
         <v>3</v>
       </c>
-      <c r="AK71" s="1">
+      <c r="AL71" s="1">
         <v>69</v>
       </c>
-      <c r="AL71"/>
-      <c r="AM71" s="1">
+      <c r="AM71"/>
+      <c r="AN71" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>83</v>
       </c>
@@ -6742,58 +6767,58 @@
       </c>
       <c r="D72"/>
       <c r="E72"/>
+      <c r="F72" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>269</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72" s="1">
+      <c r="K72"/>
+      <c r="L72" s="1">
         <v>1</v>
       </c>
-      <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
-      <c r="O72" s="1" t="s">
+      <c r="O72"/>
+      <c r="P72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72" s="1" t="s">
+      <c r="Y72"/>
+      <c r="Z72" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X72"/>
-      <c r="Y72" s="1" t="s">
+      <c r="AA72"/>
+      <c r="AD72"/>
+      <c r="AE72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF72"/>
+      <c r="AI72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ72" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z72"/>
-      <c r="AC72"/>
-      <c r="AD72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE72"/>
-      <c r="AH72" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI72" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ72" s="1">
+      <c r="AK72" s="1">
         <v>3</v>
       </c>
-      <c r="AK72" s="1">
+      <c r="AL72" s="1">
         <v>70</v>
       </c>
-      <c r="AL72"/>
-      <c r="AM72" s="1">
+      <c r="AM72"/>
+      <c r="AN72" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>84</v>
       </c>
@@ -6805,58 +6830,58 @@
       </c>
       <c r="D73"/>
       <c r="E73"/>
+      <c r="F73" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>276</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73" s="1">
+        <v>4</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73" s="1">
-        <v>4</v>
-      </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73" s="1" t="s">
+      <c r="P73" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="R73"/>
+      <c r="S73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y73"/>
+      <c r="Z73" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q73"/>
-      <c r="R73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X73"/>
-      <c r="Y73" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z73"/>
-      <c r="AC73"/>
-      <c r="AD73" s="1" t="s">
+      <c r="AA73"/>
+      <c r="AD73"/>
+      <c r="AE73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE73"/>
-      <c r="AH73"/>
+      <c r="AF73"/>
       <c r="AI73"/>
-      <c r="AJ73" s="1">
+      <c r="AJ73"/>
+      <c r="AK73" s="1">
         <v>3</v>
       </c>
-      <c r="AK73" s="1">
+      <c r="AL73" s="1">
         <v>71</v>
       </c>
-      <c r="AL73"/>
-      <c r="AM73" s="1">
+      <c r="AM73"/>
+      <c r="AN73" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>85</v>
       </c>
@@ -6868,58 +6893,58 @@
       </c>
       <c r="D74"/>
       <c r="E74"/>
+      <c r="F74" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>281</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J74"/>
-      <c r="K74" s="1">
+        <v>270</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74" s="1">
         <v>1</v>
       </c>
-      <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74" s="1" t="s">
+      <c r="O74"/>
+      <c r="P74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y74"/>
+      <c r="Z74" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X74"/>
-      <c r="Y74" s="1" t="s">
+      <c r="AA74"/>
+      <c r="AD74"/>
+      <c r="AE74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF74"/>
+      <c r="AI74" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ74" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Z74"/>
-      <c r="AC74"/>
-      <c r="AD74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE74"/>
-      <c r="AH74" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI74" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ74" s="1">
+      <c r="AK74" s="1">
         <v>3</v>
       </c>
-      <c r="AK74" s="1">
+      <c r="AL74" s="1">
         <v>72</v>
       </c>
-      <c r="AL74"/>
-      <c r="AM74" s="1">
+      <c r="AM74"/>
+      <c r="AN74" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>86</v>
       </c>
@@ -6933,44 +6958,44 @@
         <v>40</v>
       </c>
       <c r="E75"/>
+      <c r="F75" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75"/>
+        <v>40</v>
+      </c>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
-      <c r="Q75"/>
+      <c r="P75"/>
       <c r="R75"/>
       <c r="S75"/>
-      <c r="X75"/>
+      <c r="T75"/>
       <c r="Y75"/>
       <c r="Z75"/>
-      <c r="AC75"/>
+      <c r="AA75"/>
       <c r="AD75"/>
       <c r="AE75"/>
-      <c r="AH75"/>
+      <c r="AF75"/>
       <c r="AI75"/>
-      <c r="AJ75" s="1">
+      <c r="AJ75"/>
+      <c r="AK75" s="1">
         <v>1</v>
       </c>
-      <c r="AK75" s="1">
+      <c r="AL75" s="1">
         <v>310</v>
       </c>
-      <c r="AL75" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM75"/>
-    </row>
-    <row r="76" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM75" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN75"/>
+    </row>
+    <row r="76" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>87</v>
       </c>
@@ -6984,46 +7009,46 @@
         <v>40</v>
       </c>
       <c r="E76"/>
+      <c r="F76" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>289</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J76"/>
+        <v>40</v>
+      </c>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
-      <c r="Q76"/>
+      <c r="P76"/>
       <c r="R76"/>
       <c r="S76"/>
-      <c r="X76"/>
+      <c r="T76"/>
       <c r="Y76"/>
       <c r="Z76"/>
-      <c r="AC76"/>
+      <c r="AA76"/>
       <c r="AD76"/>
       <c r="AE76"/>
-      <c r="AH76"/>
+      <c r="AF76"/>
       <c r="AI76"/>
-      <c r="AJ76" s="1">
+      <c r="AJ76"/>
+      <c r="AK76" s="1">
         <v>1</v>
       </c>
-      <c r="AK76" s="1">
+      <c r="AL76" s="1">
         <v>311</v>
       </c>
-      <c r="AL76" s="1">
+      <c r="AM76" s="1">
         <v>73</v>
       </c>
-      <c r="AM76" s="1">
+      <c r="AN76" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>88</v>
       </c>
@@ -7037,6 +7062,9 @@
         <v>40</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -7045,48 +7073,45 @@
       <c r="H77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
-      <c r="Q77"/>
-      <c r="R77" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="S77"/>
-      <c r="X77"/>
+      <c r="P77"/>
+      <c r="R77"/>
+      <c r="S77" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="T77"/>
       <c r="Y77"/>
       <c r="Z77"/>
-      <c r="AC77"/>
-      <c r="AD77" s="1" t="s">
+      <c r="AA77"/>
+      <c r="AD77"/>
+      <c r="AE77" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE77" s="1">
+      <c r="AF77" s="1">
         <v>0.18</v>
       </c>
-      <c r="AH77"/>
-      <c r="AI77" s="1" t="s">
+      <c r="AI77"/>
+      <c r="AJ77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL77" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM77" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AJ77" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK77" s="1">
-        <v>73</v>
-      </c>
-      <c r="AL77" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM77" s="1">
+      <c r="AN77" s="1">
         <v>311</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>89</v>
       </c>
@@ -7100,7 +7125,10 @@
         <v>40</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>298</v>
@@ -7108,56 +7136,53 @@
       <c r="H78" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="K78"/>
+      <c r="L78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M78" s="1">
+        <v>30</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J78"/>
-      <c r="K78" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L78" s="1">
-        <v>30</v>
-      </c>
-      <c r="M78"/>
-      <c r="N78" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78" s="1" t="s">
+      <c r="Y78" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="X78" s="1" t="s">
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AD78"/>
+      <c r="AE78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF78"/>
+      <c r="AI78" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AC78"/>
-      <c r="AD78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE78"/>
-      <c r="AH78" s="1" t="s">
+      <c r="AJ78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AI78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ78" s="1">
+      <c r="AK78" s="1">
         <v>3</v>
       </c>
-      <c r="AK78" s="1">
+      <c r="AL78" s="1">
         <v>74</v>
       </c>
-      <c r="AL78"/>
-      <c r="AM78" s="1">
+      <c r="AM78"/>
+      <c r="AN78" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>91</v>
       </c>
@@ -7171,7 +7196,10 @@
         <v>40</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>307</v>
@@ -7179,50 +7207,47 @@
       <c r="H79" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="K79"/>
+      <c r="L79" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J79"/>
-      <c r="K79" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="X79" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y79"/>
       <c r="Z79"/>
-      <c r="AC79"/>
-      <c r="AD79" s="1" t="s">
+      <c r="AA79"/>
+      <c r="AD79"/>
+      <c r="AE79" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE79"/>
-      <c r="AH79"/>
+      <c r="AF79"/>
       <c r="AI79"/>
-      <c r="AJ79" s="1">
+      <c r="AJ79"/>
+      <c r="AK79" s="1">
         <v>3</v>
       </c>
-      <c r="AK79" s="1">
+      <c r="AL79" s="1">
         <v>76</v>
       </c>
-      <c r="AL79"/>
-      <c r="AM79" s="1">
+      <c r="AM79"/>
+      <c r="AN79" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>92</v>
       </c>
@@ -7236,46 +7261,46 @@
         <v>40</v>
       </c>
       <c r="E80"/>
+      <c r="F80" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>311</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80"/>
+        <v>40</v>
+      </c>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="Q80"/>
+      <c r="P80"/>
       <c r="R80"/>
       <c r="S80"/>
-      <c r="X80"/>
+      <c r="T80"/>
       <c r="Y80"/>
       <c r="Z80"/>
-      <c r="AC80"/>
+      <c r="AA80"/>
       <c r="AD80"/>
       <c r="AE80"/>
-      <c r="AH80"/>
+      <c r="AF80"/>
       <c r="AI80"/>
-      <c r="AJ80" s="1">
+      <c r="AJ80"/>
+      <c r="AK80" s="1">
         <v>1</v>
       </c>
-      <c r="AK80" s="1">
+      <c r="AL80" s="1">
         <v>312</v>
       </c>
-      <c r="AL80" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM80" s="1">
+      <c r="AM80" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN80" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>93</v>
       </c>
@@ -7289,64 +7314,64 @@
         <v>40</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81" s="1">
+        <v>270</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81" s="1">
         <v>1</v>
       </c>
-      <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81" s="1" t="s">
+      <c r="O81"/>
+      <c r="P81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X81" s="1" t="s">
+      <c r="Z81" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA81"/>
+      <c r="AD81"/>
+      <c r="AE81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AI81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="Y81" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z81"/>
-      <c r="AC81"/>
-      <c r="AD81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE81" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AH81" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI81" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ81" s="1">
+      <c r="AK81" s="1">
         <v>2</v>
       </c>
-      <c r="AK81" s="1">
+      <c r="AL81" s="1">
         <v>77</v>
       </c>
-      <c r="AL81"/>
-      <c r="AM81" s="1">
+      <c r="AM81"/>
+      <c r="AN81" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>94</v>
       </c>
@@ -7360,7 +7385,10 @@
         <v>40</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>319</v>
@@ -7368,57 +7396,54 @@
       <c r="H82" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J82"/>
       <c r="K82"/>
-      <c r="L82" s="1">
+      <c r="L82"/>
+      <c r="M82" s="1">
         <v>1</v>
       </c>
-      <c r="M82" s="1">
+      <c r="N82" s="1">
         <v>15</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P82" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82" s="1" t="s">
+      <c r="Y82" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="X82" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y82"/>
-      <c r="AC82"/>
-      <c r="AD82" s="1" t="s">
+      <c r="Z82"/>
+      <c r="AD82"/>
+      <c r="AE82" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE82" s="1">
+      <c r="AF82" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH82" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="AI82" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ82" s="1">
+        <v>297</v>
+      </c>
+      <c r="AJ82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK82" s="1">
         <v>2</v>
       </c>
-      <c r="AK82" s="1">
+      <c r="AL82" s="1">
         <v>78</v>
       </c>
-      <c r="AL82"/>
-      <c r="AM82" s="1">
+      <c r="AM82"/>
+      <c r="AN82" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>95</v>
       </c>
@@ -7432,57 +7457,57 @@
         <v>40</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>322</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="R83"/>
+      <c r="S83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T83"/>
+      <c r="Y83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z83"/>
+      <c r="AD83"/>
+      <c r="AE83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AI83" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ83" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK83" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL83" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM83" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="Q83"/>
-      <c r="R83" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S83"/>
-      <c r="X83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y83"/>
-      <c r="AC83"/>
-      <c r="AD83" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE83" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AH83" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI83" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ83" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK83" s="1">
-        <v>79</v>
-      </c>
-      <c r="AL83" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM83" s="1">
+      <c r="AN83" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>96</v>
       </c>
@@ -7496,63 +7521,63 @@
         <v>40</v>
       </c>
       <c r="E84"/>
+      <c r="F84" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>325</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="K84"/>
+      <c r="L84" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J84"/>
-      <c r="K84" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="R84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z84" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="Q84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y84" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC84"/>
-      <c r="AD84" s="1" t="s">
+      <c r="AD84"/>
+      <c r="AE84" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE84"/>
-      <c r="AH84" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="AF84"/>
       <c r="AI84" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ84" s="1">
+        <v>297</v>
+      </c>
+      <c r="AJ84" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK84" s="1">
         <v>3</v>
       </c>
-      <c r="AK84" s="1">
+      <c r="AL84" s="1">
         <v>80</v>
       </c>
-      <c r="AL84"/>
-      <c r="AM84" s="1">
+      <c r="AM84"/>
+      <c r="AN84" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>97</v>
       </c>
@@ -7566,55 +7591,55 @@
         <v>40</v>
       </c>
       <c r="E85"/>
+      <c r="F85" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>331</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85" s="1">
+        <v>2</v>
+      </c>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="R85"/>
+      <c r="S85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T85"/>
+      <c r="Y85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z85"/>
+      <c r="AD85"/>
+      <c r="AE85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF85"/>
+      <c r="AI85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK85" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL85" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM85" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85" s="1">
-        <v>2</v>
-      </c>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="Q85"/>
-      <c r="R85" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S85"/>
-      <c r="X85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y85"/>
-      <c r="AC85"/>
-      <c r="AD85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE85"/>
-      <c r="AH85" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI85" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ85" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK85" s="1">
-        <v>82</v>
-      </c>
-      <c r="AL85" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AM85" s="1">
+      <c r="AN85" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>98</v>
       </c>
@@ -7628,65 +7653,65 @@
         <v>40</v>
       </c>
       <c r="E86"/>
+      <c r="F86" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>334</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86" s="1">
+        <v>4</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J86"/>
-      <c r="K86" s="1">
+      <c r="P86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z86" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD86" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF86"/>
+      <c r="AI86" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ86" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK86" s="1">
         <v>4</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y86" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC86" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE86"/>
-      <c r="AH86" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI86" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ86" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK86" s="1">
+      <c r="AL86" s="1">
         <v>83</v>
       </c>
-      <c r="AL86"/>
-      <c r="AM86" s="1">
+      <c r="AM86"/>
+      <c r="AN86" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>99</v>
       </c>
@@ -7700,65 +7725,65 @@
         <v>40</v>
       </c>
       <c r="E87"/>
+      <c r="F87" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>340</v>
       </c>
       <c r="H87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K87"/>
+      <c r="L87" s="1">
+        <v>4</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87" s="1">
+      <c r="P87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z87" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD87" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF87"/>
+      <c r="AI87" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ87" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK87" s="1">
         <v>4</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="X87" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y87" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC87" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE87"/>
-      <c r="AH87" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI87" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ87" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK87" s="1">
+      <c r="AL87" s="1">
         <v>84</v>
       </c>
-      <c r="AL87"/>
-      <c r="AM87" s="1">
+      <c r="AM87"/>
+      <c r="AN87" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>100</v>
       </c>
@@ -7772,59 +7797,59 @@
         <v>40</v>
       </c>
       <c r="E88"/>
+      <c r="F88" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88" s="1">
+      <c r="K88"/>
+      <c r="L88" s="1">
         <v>2</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="P88" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T88" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="R88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S88" s="1" t="s">
+      <c r="Y88" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="X88" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y88" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD88" s="1" t="s">
+      <c r="Z88" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE88"/>
-      <c r="AH88" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="AF88"/>
       <c r="AI88" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ88" s="1">
+        <v>297</v>
+      </c>
+      <c r="AJ88" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK88" s="1">
         <v>3</v>
       </c>
-      <c r="AK88" s="1">
+      <c r="AL88" s="1">
         <v>85</v>
       </c>
-      <c r="AL88"/>
-      <c r="AM88" s="1">
+      <c r="AM88"/>
+      <c r="AN88" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>101</v>
       </c>
@@ -7838,7 +7863,10 @@
         <v>40</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>346</v>
@@ -7846,45 +7874,42 @@
       <c r="H89" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J89"/>
-      <c r="N89"/>
-      <c r="O89" s="1" t="s">
+      <c r="K89"/>
+      <c r="O89"/>
+      <c r="P89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="T89" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S89" s="1" t="s">
+      <c r="Y89" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="X89" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y89"/>
-      <c r="AD89" s="1" t="s">
+      <c r="Z89"/>
+      <c r="AE89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE89" s="1">
+      <c r="AF89" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH89" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="AI89" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ89" s="1">
+        <v>297</v>
+      </c>
+      <c r="AJ89" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK89" s="1">
         <v>2</v>
       </c>
-      <c r="AK89" s="1">
+      <c r="AL89" s="1">
         <v>86</v>
       </c>
-      <c r="AL89"/>
-      <c r="AM89" s="1">
+      <c r="AM89"/>
+      <c r="AN89" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>102</v>
       </c>
@@ -7895,9 +7920,12 @@
         <v>39</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>350</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -7906,27 +7934,24 @@
       <c r="H90" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="T90" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="S90" s="1" t="s">
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AL90" s="1">
+        <v>93</v>
+      </c>
+      <c r="AM90" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="AK90" s="1">
-        <v>93</v>
-      </c>
-      <c r="AL90" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>103</v>
       </c>
@@ -7937,9 +7962,12 @@
         <v>39</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -7948,31 +7976,28 @@
       <c r="H91" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="P91" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="X91"/>
+      <c r="T91" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="Y91"/>
-      <c r="AK91" s="1">
+      <c r="Z91"/>
+      <c r="AL91" s="1">
         <v>94</v>
       </c>
-      <c r="AL91" s="1">
+      <c r="AM91" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>104</v>
       </c>
@@ -7983,9 +8008,12 @@
         <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -7994,31 +8022,28 @@
       <c r="H92" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="X92"/>
+      <c r="P92" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="Y92"/>
-      <c r="AK92" s="1">
+      <c r="Z92"/>
+      <c r="AL92" s="1">
         <v>95</v>
       </c>
-      <c r="AL92" s="1">
+      <c r="AM92" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>105</v>
       </c>
@@ -8029,9 +8054,12 @@
         <v>39</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -8040,31 +8068,28 @@
       <c r="H93" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="X93"/>
+      <c r="P93" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="Y93"/>
-      <c r="AK93" s="1">
+      <c r="Z93"/>
+      <c r="AL93" s="1">
         <v>96</v>
       </c>
-      <c r="AL93" s="1">
+      <c r="AM93" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>106</v>
       </c>
@@ -8075,9 +8100,12 @@
         <v>39</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -8086,31 +8114,28 @@
       <c r="H94" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N94" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="X94"/>
+      <c r="P94" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="Y94"/>
-      <c r="AK94" s="1">
+      <c r="Z94"/>
+      <c r="AL94" s="1">
         <v>97</v>
       </c>
-      <c r="AL94" s="1">
+      <c r="AM94" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>107</v>
       </c>
@@ -8121,9 +8146,12 @@
         <v>39</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>367</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -8132,31 +8160,28 @@
       <c r="H95" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="K95" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O95"/>
+      <c r="P95" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N95"/>
-      <c r="O95" s="1" t="s">
+      <c r="T95" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="S95" s="1" t="s">
+      <c r="Y95" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z95" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="X95" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y95" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK95" s="1">
+      <c r="AL95" s="1">
         <v>98</v>
       </c>
-      <c r="AL95"/>
-    </row>
-    <row r="96" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM95"/>
+    </row>
+    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>108</v>
       </c>
@@ -8167,9 +8192,12 @@
         <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>374</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -8178,28 +8206,25 @@
       <c r="H96" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="K96" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N96"/>
-      <c r="O96" s="1" t="s">
+      <c r="T96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z96" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="S96" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y96" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK96" s="1">
+      <c r="AL96" s="1">
         <v>99</v>
       </c>
-      <c r="AL96"/>
-    </row>
-    <row r="97" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM96"/>
+    </row>
+    <row r="97" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>109</v>
       </c>
@@ -8210,39 +8235,39 @@
         <v>39</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>380</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>381</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y97" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK97" s="1">
+      <c r="T97" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z97" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL97" s="1">
         <v>101</v>
       </c>
-      <c r="AL97"/>
-    </row>
-    <row r="98" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM97"/>
+    </row>
+    <row r="98" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>110</v>
       </c>
@@ -8253,40 +8278,40 @@
         <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>384</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O98" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N98" s="1" t="s">
+      <c r="P98" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="O98" s="3" t="s">
+      <c r="T98" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL98" s="1">
+        <v>102</v>
+      </c>
+      <c r="AM98" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="S98" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK98" s="1">
-        <v>102</v>
-      </c>
-      <c r="AL98" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="99" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -8297,40 +8322,40 @@
         <v>39</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>384</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O99" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="O99" s="3" t="s">
+      <c r="P99" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL99" s="1">
+        <v>104</v>
+      </c>
+      <c r="AM99" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="S99" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK99" s="1">
-        <v>104</v>
-      </c>
-      <c r="AL99" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="100" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>112</v>
       </c>
@@ -8341,29 +8366,29 @@
         <v>39</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>392</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK100" s="1">
+      <c r="T100" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL100" s="1">
         <v>521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
